--- a/Solar Energy Ulmeni/Results_Production_SolarEnergy_xgb_15min.xlsx
+++ b/Solar Energy Ulmeni/Results_Production_SolarEnergy_xgb_15min.xlsx
@@ -28,12 +28,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>14.11.202594</t>
-  </si>
-  <si>
-    <t>14.11.202595</t>
-  </si>
-  <si>
     <t>14.11.202596</t>
   </si>
   <si>
@@ -2024,6 +2018,12 @@
   </si>
   <si>
     <t>21.11.202594</t>
+  </si>
+  <si>
+    <t>21.11.202595</t>
+  </si>
+  <si>
+    <t>21.11.202596</t>
   </si>
 </sst>
 </file>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45975.96875</v>
+        <v>45975.98958333334</v>
       </c>
       <c r="B2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45975.97916666666</v>
+        <v>45976</v>
       </c>
       <c r="B3">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2435,10 +2435,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45975.98958333334</v>
+        <v>45976.01041666666</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45976</v>
+        <v>45976.02083333334</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45976.01041666666</v>
+        <v>45976.03125</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45976.02083333334</v>
+        <v>45976.04166666666</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45976.03125</v>
+        <v>45976.05208333334</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45976.04166666666</v>
+        <v>45976.0625</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2519,10 +2519,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45976.05208333334</v>
+        <v>45976.07291666666</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45976.0625</v>
+        <v>45976.09375</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2547,10 +2547,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45976.07291666666</v>
+        <v>45976.10416666666</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2561,10 +2561,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45976.09375</v>
+        <v>45976.11458333334</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45976.10416666666</v>
+        <v>45976.125</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2589,10 +2589,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45976.11458333334</v>
+        <v>45976.13541666666</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2603,10 +2603,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45976.125</v>
+        <v>45976.14583333334</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45976.13541666666</v>
+        <v>45976.15625</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45976.14583333334</v>
+        <v>45976.16666666666</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2645,10 +2645,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45976.15625</v>
+        <v>45976.17708333334</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45976.16666666666</v>
+        <v>45976.1875</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2673,10 +2673,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45976.17708333334</v>
+        <v>45976.19791666666</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2687,10 +2687,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45976.1875</v>
+        <v>45976.20833333334</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45976.19791666666</v>
+        <v>45976.21875</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45976.20833333334</v>
+        <v>45976.22916666666</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45976.21875</v>
+        <v>45976.23958333334</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45976.22916666666</v>
+        <v>45976.25</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45976.23958333334</v>
+        <v>45976.26041666666</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45976.25</v>
+        <v>45976.27083333334</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45976.26041666666</v>
+        <v>45976.28125</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45976.27083333334</v>
+        <v>45976.29166666666</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45976.28125</v>
+        <v>45976.30208333334</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45976.29166666666</v>
+        <v>45976.3125</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2841,13 +2841,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45976.30208333334</v>
+        <v>45976.32291666666</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -2855,13 +2855,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45976.3125</v>
+        <v>45976.33333333334</v>
       </c>
       <c r="B34">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -2869,13 +2869,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45976.32291666666</v>
+        <v>45976.34375</v>
       </c>
       <c r="B35">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>0.018</v>
+        <v>0.1</v>
       </c>
       <c r="D35" t="s">
         <v>37</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45976.33333333334</v>
+        <v>45976.35416666666</v>
       </c>
       <c r="B36">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>0.05</v>
+        <v>0.132</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45976.34375</v>
+        <v>45976.36458333334</v>
       </c>
       <c r="B37">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>0.059</v>
+        <v>0.138</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -2911,13 +2911,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45976.35416666666</v>
+        <v>45976.375</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>0.079</v>
+        <v>0.13</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45976.36458333334</v>
+        <v>45976.38541666666</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>0.102</v>
+        <v>0.157</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -2939,13 +2939,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45976.375</v>
+        <v>45976.39583333334</v>
       </c>
       <c r="B40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C40">
-        <v>0.114</v>
+        <v>0.183</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
@@ -2953,13 +2953,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45976.38541666666</v>
+        <v>45976.40625</v>
       </c>
       <c r="B41">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>0.139</v>
+        <v>0.18</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -2967,13 +2967,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45976.39583333334</v>
+        <v>45976.41666666666</v>
       </c>
       <c r="B42">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>0.165</v>
+        <v>0.2</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
@@ -2981,13 +2981,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45976.40625</v>
+        <v>45976.42708333334</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>0.179</v>
+        <v>0.23</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -2995,13 +2995,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45976.41666666666</v>
+        <v>45976.4375</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>0.226</v>
+        <v>0.289</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45976.42708333334</v>
+        <v>45976.44791666666</v>
       </c>
       <c r="B45">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>0.273</v>
+        <v>0.31</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -3023,13 +3023,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45976.4375</v>
+        <v>45976.45833333334</v>
       </c>
       <c r="B46">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>0.273</v>
+        <v>0.324</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -3037,13 +3037,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45976.44791666666</v>
+        <v>45976.46875</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>0.317</v>
+        <v>0.334</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -3051,13 +3051,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45976.45833333334</v>
+        <v>45976.47916666666</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C48">
-        <v>0.332</v>
+        <v>0.354</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45976.46875</v>
+        <v>45976.48958333334</v>
       </c>
       <c r="B49">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C49">
-        <v>0.336</v>
+        <v>0.341</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45976.47916666666</v>
+        <v>45976.5</v>
       </c>
       <c r="B50">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C50">
-        <v>0.337</v>
+        <v>0.352</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -3093,13 +3093,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45976.48958333334</v>
+        <v>45976.51041666666</v>
       </c>
       <c r="B51">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C51">
-        <v>0.344</v>
+        <v>0.359</v>
       </c>
       <c r="D51" t="s">
         <v>53</v>
@@ -3107,13 +3107,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45976.5</v>
+        <v>45976.52083333334</v>
       </c>
       <c r="B52">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C52">
-        <v>0.34</v>
+        <v>0.351</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45976.51041666666</v>
+        <v>45976.53125</v>
       </c>
       <c r="B53">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>0.363</v>
+        <v>0.351</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -3135,13 +3135,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45976.52083333334</v>
+        <v>45976.54166666666</v>
       </c>
       <c r="B54">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C54">
-        <v>0.36</v>
+        <v>0.351</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
@@ -3149,13 +3149,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45976.53125</v>
+        <v>45976.55208333334</v>
       </c>
       <c r="B55">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>0.349</v>
+        <v>0.328</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -3163,13 +3163,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45976.54166666666</v>
+        <v>45976.5625</v>
       </c>
       <c r="B56">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>0.351</v>
+        <v>0.337</v>
       </c>
       <c r="D56" t="s">
         <v>58</v>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45976.55208333334</v>
+        <v>45976.57291666666</v>
       </c>
       <c r="B57">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>0.351</v>
+        <v>0.335</v>
       </c>
       <c r="D57" t="s">
         <v>59</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45976.5625</v>
+        <v>45976.58333333334</v>
       </c>
       <c r="B58">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>0.341</v>
+        <v>0.305</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -3205,13 +3205,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45976.57291666666</v>
+        <v>45976.59375</v>
       </c>
       <c r="B59">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>0.334</v>
+        <v>0.339</v>
       </c>
       <c r="D59" t="s">
         <v>61</v>
@@ -3219,13 +3219,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45976.58333333334</v>
+        <v>45976.60416666666</v>
       </c>
       <c r="B60">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>0.302</v>
+        <v>0.34</v>
       </c>
       <c r="D60" t="s">
         <v>62</v>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45976.59375</v>
+        <v>45976.61458333334</v>
       </c>
       <c r="B61">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>0.275</v>
+        <v>0.263</v>
       </c>
       <c r="D61" t="s">
         <v>63</v>
@@ -3247,13 +3247,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45976.60416666666</v>
+        <v>45976.625</v>
       </c>
       <c r="B62">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>0.335</v>
+        <v>0.25</v>
       </c>
       <c r="D62" t="s">
         <v>64</v>
@@ -3261,13 +3261,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45976.61458333334</v>
+        <v>45976.63541666666</v>
       </c>
       <c r="B63">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C63">
-        <v>0.254</v>
+        <v>0.21</v>
       </c>
       <c r="D63" t="s">
         <v>65</v>
@@ -3275,13 +3275,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45976.625</v>
+        <v>45976.64583333334</v>
       </c>
       <c r="B64">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C64">
-        <v>0.246</v>
+        <v>0.159</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45976.63541666666</v>
+        <v>45976.65625</v>
       </c>
       <c r="B65">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C65">
-        <v>0.21</v>
+        <v>0.123</v>
       </c>
       <c r="D65" t="s">
         <v>67</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45976.64583333334</v>
+        <v>45976.66666666666</v>
       </c>
       <c r="B66">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>0.179</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
@@ -3317,13 +3317,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45976.65625</v>
+        <v>45976.67708333334</v>
       </c>
       <c r="B67">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>0.124</v>
+        <v>0.05</v>
       </c>
       <c r="D67" t="s">
         <v>69</v>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45976.66666666666</v>
+        <v>45976.6875</v>
       </c>
       <c r="B68">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>0.08699999999999999</v>
+        <v>0.027</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45976.67708333334</v>
+        <v>45976.69791666666</v>
       </c>
       <c r="B69">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C69">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45976.6875</v>
+        <v>45976.70833333334</v>
       </c>
       <c r="B70">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -3373,10 +3373,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45976.69791666666</v>
+        <v>45976.71875</v>
       </c>
       <c r="B71">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45976.70833333334</v>
+        <v>45976.72916666666</v>
       </c>
       <c r="B72">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3401,10 +3401,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45976.71875</v>
+        <v>45976.73958333334</v>
       </c>
       <c r="B73">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45976.72916666666</v>
+        <v>45976.75</v>
       </c>
       <c r="B74">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45976.73958333334</v>
+        <v>45976.76041666666</v>
       </c>
       <c r="B75">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3443,10 +3443,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45976.75</v>
+        <v>45976.77083333334</v>
       </c>
       <c r="B76">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3457,10 +3457,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45976.76041666666</v>
+        <v>45976.78125</v>
       </c>
       <c r="B77">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45976.77083333334</v>
+        <v>45976.79166666666</v>
       </c>
       <c r="B78">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45976.78125</v>
+        <v>45976.80208333334</v>
       </c>
       <c r="B79">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45976.79166666666</v>
+        <v>45976.8125</v>
       </c>
       <c r="B80">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45976.80208333334</v>
+        <v>45976.82291666666</v>
       </c>
       <c r="B81">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45976.8125</v>
+        <v>45976.83333333334</v>
       </c>
       <c r="B82">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45976.82291666666</v>
+        <v>45976.84375</v>
       </c>
       <c r="B83">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3555,10 +3555,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45976.83333333334</v>
+        <v>45976.85416666666</v>
       </c>
       <c r="B84">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45976.84375</v>
+        <v>45976.86458333334</v>
       </c>
       <c r="B85">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45976.85416666666</v>
+        <v>45976.875</v>
       </c>
       <c r="B86">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45976.86458333334</v>
+        <v>45976.88541666666</v>
       </c>
       <c r="B87">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45976.875</v>
+        <v>45976.89583333334</v>
       </c>
       <c r="B88">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3625,10 +3625,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45976.88541666666</v>
+        <v>45976.90625</v>
       </c>
       <c r="B89">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3639,10 +3639,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45976.89583333334</v>
+        <v>45976.91666666666</v>
       </c>
       <c r="B90">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45976.90625</v>
+        <v>45976.92708333334</v>
       </c>
       <c r="B91">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3667,10 +3667,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45976.91666666666</v>
+        <v>45976.9375</v>
       </c>
       <c r="B92">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3681,10 +3681,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45976.92708333334</v>
+        <v>45976.94791666666</v>
       </c>
       <c r="B93">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45976.9375</v>
+        <v>45976.95833333334</v>
       </c>
       <c r="B94">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45976.94791666666</v>
+        <v>45976.96875</v>
       </c>
       <c r="B95">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45976.95833333334</v>
+        <v>45976.97916666666</v>
       </c>
       <c r="B96">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3737,10 +3737,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45976.96875</v>
+        <v>45976.98958333334</v>
       </c>
       <c r="B97">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3751,10 +3751,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45976.97916666666</v>
+        <v>45977</v>
       </c>
       <c r="B98">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45976.98958333334</v>
+        <v>45977.01041666666</v>
       </c>
       <c r="B99">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45977</v>
+        <v>45977.02083333334</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3793,10 +3793,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45977.01041666666</v>
+        <v>45977.03125</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45977.02083333334</v>
+        <v>45977.04166666666</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3821,10 +3821,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45977.03125</v>
+        <v>45977.05208333334</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45977.04166666666</v>
+        <v>45977.0625</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45977.05208333334</v>
+        <v>45977.07291666666</v>
       </c>
       <c r="B105">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -3863,10 +3863,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45977.0625</v>
+        <v>45977.09375</v>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45977.07291666666</v>
+        <v>45977.10416666666</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3891,10 +3891,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45977.09375</v>
+        <v>45977.11458333334</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3905,10 +3905,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45977.10416666666</v>
+        <v>45977.125</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3919,10 +3919,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45977.11458333334</v>
+        <v>45977.13541666666</v>
       </c>
       <c r="B110">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45977.125</v>
+        <v>45977.14583333334</v>
       </c>
       <c r="B111">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3947,10 +3947,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45977.13541666666</v>
+        <v>45977.15625</v>
       </c>
       <c r="B112">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45977.14583333334</v>
+        <v>45977.16666666666</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45977.15625</v>
+        <v>45977.17708333334</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3989,10 +3989,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45977.16666666666</v>
+        <v>45977.1875</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4003,10 +4003,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45977.17708333334</v>
+        <v>45977.19791666666</v>
       </c>
       <c r="B116">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45977.1875</v>
+        <v>45977.20833333334</v>
       </c>
       <c r="B117">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45977.19791666666</v>
+        <v>45977.21875</v>
       </c>
       <c r="B118">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4045,10 +4045,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45977.20833333334</v>
+        <v>45977.22916666666</v>
       </c>
       <c r="B119">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45977.21875</v>
+        <v>45977.23958333334</v>
       </c>
       <c r="B120">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45977.22916666666</v>
+        <v>45977.25</v>
       </c>
       <c r="B121">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45977.23958333334</v>
+        <v>45977.26041666666</v>
       </c>
       <c r="B122">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4101,10 +4101,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45977.25</v>
+        <v>45977.27083333334</v>
       </c>
       <c r="B123">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45977.26041666666</v>
+        <v>45977.28125</v>
       </c>
       <c r="B124">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -4129,10 +4129,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45977.27083333334</v>
+        <v>45977.29166666666</v>
       </c>
       <c r="B125">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45977.28125</v>
+        <v>45977.30208333334</v>
       </c>
       <c r="B126">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45977.29166666666</v>
+        <v>45977.3125</v>
       </c>
       <c r="B127">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -4171,13 +4171,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45977.30208333334</v>
+        <v>45977.32291666666</v>
       </c>
       <c r="B128">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="D128" t="s">
         <v>130</v>
@@ -4185,13 +4185,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45977.3125</v>
+        <v>45977.33333333334</v>
       </c>
       <c r="B129">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="D129" t="s">
         <v>131</v>
@@ -4199,13 +4199,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45977.32291666666</v>
+        <v>45977.34375</v>
       </c>
       <c r="B130">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C130">
-        <v>0.018</v>
+        <v>0.098</v>
       </c>
       <c r="D130" t="s">
         <v>132</v>
@@ -4213,13 +4213,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45977.33333333334</v>
+        <v>45977.35416666666</v>
       </c>
       <c r="B131">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C131">
-        <v>0.045</v>
+        <v>0.12</v>
       </c>
       <c r="D131" t="s">
         <v>133</v>
@@ -4227,13 +4227,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45977.34375</v>
+        <v>45977.36458333334</v>
       </c>
       <c r="B132">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C132">
-        <v>0.056</v>
+        <v>0.148</v>
       </c>
       <c r="D132" t="s">
         <v>134</v>
@@ -4241,13 +4241,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45977.35416666666</v>
+        <v>45977.375</v>
       </c>
       <c r="B133">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C133">
-        <v>0.073</v>
+        <v>0.182</v>
       </c>
       <c r="D133" t="s">
         <v>135</v>
@@ -4255,13 +4255,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45977.36458333334</v>
+        <v>45977.38541666666</v>
       </c>
       <c r="B134">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C134">
-        <v>0.08500000000000001</v>
+        <v>0.242</v>
       </c>
       <c r="D134" t="s">
         <v>136</v>
@@ -4269,13 +4269,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45977.375</v>
+        <v>45977.39583333334</v>
       </c>
       <c r="B135">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C135">
-        <v>0.099</v>
+        <v>0.297</v>
       </c>
       <c r="D135" t="s">
         <v>137</v>
@@ -4283,13 +4283,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45977.38541666666</v>
+        <v>45977.40625</v>
       </c>
       <c r="B136">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C136">
-        <v>0.114</v>
+        <v>0.338</v>
       </c>
       <c r="D136" t="s">
         <v>138</v>
@@ -4297,13 +4297,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45977.39583333334</v>
+        <v>45977.41666666666</v>
       </c>
       <c r="B137">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C137">
-        <v>0.133</v>
+        <v>0.376</v>
       </c>
       <c r="D137" t="s">
         <v>139</v>
@@ -4311,13 +4311,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45977.40625</v>
+        <v>45977.42708333334</v>
       </c>
       <c r="B138">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C138">
-        <v>0.164</v>
+        <v>0.363</v>
       </c>
       <c r="D138" t="s">
         <v>140</v>
@@ -4325,13 +4325,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45977.41666666666</v>
+        <v>45977.4375</v>
       </c>
       <c r="B139">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C139">
-        <v>0.168</v>
+        <v>0.301</v>
       </c>
       <c r="D139" t="s">
         <v>141</v>
@@ -4339,13 +4339,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45977.42708333334</v>
+        <v>45977.44791666666</v>
       </c>
       <c r="B140">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C140">
-        <v>0.2</v>
+        <v>0.309</v>
       </c>
       <c r="D140" t="s">
         <v>142</v>
@@ -4353,13 +4353,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45977.4375</v>
+        <v>45977.45833333334</v>
       </c>
       <c r="B141">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C141">
-        <v>0.226</v>
+        <v>0.331</v>
       </c>
       <c r="D141" t="s">
         <v>143</v>
@@ -4367,13 +4367,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45977.44791666666</v>
+        <v>45977.46875</v>
       </c>
       <c r="B142">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C142">
-        <v>0.279</v>
+        <v>0.328</v>
       </c>
       <c r="D142" t="s">
         <v>144</v>
@@ -4381,13 +4381,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45977.45833333334</v>
+        <v>45977.47916666666</v>
       </c>
       <c r="B143">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C143">
-        <v>0.31</v>
+        <v>0.377</v>
       </c>
       <c r="D143" t="s">
         <v>145</v>
@@ -4395,13 +4395,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45977.46875</v>
+        <v>45977.48958333334</v>
       </c>
       <c r="B144">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C144">
-        <v>0.326</v>
+        <v>0.354</v>
       </c>
       <c r="D144" t="s">
         <v>146</v>
@@ -4409,13 +4409,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45977.47916666666</v>
+        <v>45977.5</v>
       </c>
       <c r="B145">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C145">
-        <v>0.352</v>
+        <v>0.461</v>
       </c>
       <c r="D145" t="s">
         <v>147</v>
@@ -4423,13 +4423,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45977.48958333334</v>
+        <v>45977.51041666666</v>
       </c>
       <c r="B146">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C146">
-        <v>0.348</v>
+        <v>0.457</v>
       </c>
       <c r="D146" t="s">
         <v>148</v>
@@ -4437,13 +4437,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45977.5</v>
+        <v>45977.52083333334</v>
       </c>
       <c r="B147">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C147">
-        <v>0.352</v>
+        <v>0.437</v>
       </c>
       <c r="D147" t="s">
         <v>149</v>
@@ -4451,13 +4451,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45977.51041666666</v>
+        <v>45977.53125</v>
       </c>
       <c r="B148">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C148">
-        <v>0.353</v>
+        <v>0.405</v>
       </c>
       <c r="D148" t="s">
         <v>150</v>
@@ -4465,13 +4465,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45977.52083333334</v>
+        <v>45977.54166666666</v>
       </c>
       <c r="B149">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C149">
-        <v>0.347</v>
+        <v>0.361</v>
       </c>
       <c r="D149" t="s">
         <v>151</v>
@@ -4479,13 +4479,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45977.53125</v>
+        <v>45977.55208333334</v>
       </c>
       <c r="B150">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C150">
-        <v>0.353</v>
+        <v>0.375</v>
       </c>
       <c r="D150" t="s">
         <v>152</v>
@@ -4493,13 +4493,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45977.54166666666</v>
+        <v>45977.5625</v>
       </c>
       <c r="B151">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C151">
-        <v>0.367</v>
+        <v>0.351</v>
       </c>
       <c r="D151" t="s">
         <v>153</v>
@@ -4507,13 +4507,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45977.55208333334</v>
+        <v>45977.57291666666</v>
       </c>
       <c r="B152">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C152">
-        <v>0.361</v>
+        <v>0.335</v>
       </c>
       <c r="D152" t="s">
         <v>154</v>
@@ -4521,13 +4521,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45977.5625</v>
+        <v>45977.58333333334</v>
       </c>
       <c r="B153">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C153">
-        <v>0.354</v>
+        <v>0.31</v>
       </c>
       <c r="D153" t="s">
         <v>155</v>
@@ -4535,13 +4535,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45977.57291666666</v>
+        <v>45977.59375</v>
       </c>
       <c r="B154">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C154">
-        <v>0.338</v>
+        <v>0.309</v>
       </c>
       <c r="D154" t="s">
         <v>156</v>
@@ -4549,13 +4549,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45977.58333333334</v>
+        <v>45977.60416666666</v>
       </c>
       <c r="B155">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C155">
-        <v>0.263</v>
+        <v>0.232</v>
       </c>
       <c r="D155" t="s">
         <v>157</v>
@@ -4563,13 +4563,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45977.59375</v>
+        <v>45977.61458333334</v>
       </c>
       <c r="B156">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C156">
-        <v>0.234</v>
+        <v>0.199</v>
       </c>
       <c r="D156" t="s">
         <v>158</v>
@@ -4577,13 +4577,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45977.60416666666</v>
+        <v>45977.625</v>
       </c>
       <c r="B157">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C157">
-        <v>0.218</v>
+        <v>0.192</v>
       </c>
       <c r="D157" t="s">
         <v>159</v>
@@ -4591,13 +4591,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45977.61458333334</v>
+        <v>45977.63541666666</v>
       </c>
       <c r="B158">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C158">
-        <v>0.184</v>
+        <v>0.176</v>
       </c>
       <c r="D158" t="s">
         <v>160</v>
@@ -4605,13 +4605,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45977.625</v>
+        <v>45977.64583333334</v>
       </c>
       <c r="B159">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C159">
-        <v>0.192</v>
+        <v>0.14</v>
       </c>
       <c r="D159" t="s">
         <v>161</v>
@@ -4619,13 +4619,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45977.63541666666</v>
+        <v>45977.65625</v>
       </c>
       <c r="B160">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C160">
-        <v>0.157</v>
+        <v>0.096</v>
       </c>
       <c r="D160" t="s">
         <v>162</v>
@@ -4633,13 +4633,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45977.64583333334</v>
+        <v>45977.66666666666</v>
       </c>
       <c r="B161">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C161">
-        <v>0.128</v>
+        <v>0.066</v>
       </c>
       <c r="D161" t="s">
         <v>163</v>
@@ -4647,13 +4647,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45977.65625</v>
+        <v>45977.67708333334</v>
       </c>
       <c r="B162">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C162">
-        <v>0.097</v>
+        <v>0.043</v>
       </c>
       <c r="D162" t="s">
         <v>164</v>
@@ -4661,13 +4661,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45977.66666666666</v>
+        <v>45977.6875</v>
       </c>
       <c r="B163">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C163">
-        <v>0.064</v>
+        <v>0.018</v>
       </c>
       <c r="D163" t="s">
         <v>165</v>
@@ -4675,13 +4675,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45977.67708333334</v>
+        <v>45977.69791666666</v>
       </c>
       <c r="B164">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C164">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="D164" t="s">
         <v>166</v>
@@ -4689,13 +4689,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45977.6875</v>
+        <v>45977.70833333334</v>
       </c>
       <c r="B165">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C165">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D165" t="s">
         <v>167</v>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45977.69791666666</v>
+        <v>45977.71875</v>
       </c>
       <c r="B166">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4717,10 +4717,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45977.70833333334</v>
+        <v>45977.72916666666</v>
       </c>
       <c r="B167">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45977.71875</v>
+        <v>45977.73958333334</v>
       </c>
       <c r="B168">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -4745,10 +4745,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45977.72916666666</v>
+        <v>45977.75</v>
       </c>
       <c r="B169">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -4759,10 +4759,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45977.73958333334</v>
+        <v>45977.76041666666</v>
       </c>
       <c r="B170">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -4773,10 +4773,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45977.75</v>
+        <v>45977.77083333334</v>
       </c>
       <c r="B171">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45977.76041666666</v>
+        <v>45977.78125</v>
       </c>
       <c r="B172">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -4801,10 +4801,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45977.77083333334</v>
+        <v>45977.79166666666</v>
       </c>
       <c r="B173">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4815,10 +4815,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45977.78125</v>
+        <v>45977.80208333334</v>
       </c>
       <c r="B174">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -4829,10 +4829,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45977.79166666666</v>
+        <v>45977.8125</v>
       </c>
       <c r="B175">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -4843,10 +4843,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45977.80208333334</v>
+        <v>45977.82291666666</v>
       </c>
       <c r="B176">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -4857,10 +4857,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45977.8125</v>
+        <v>45977.83333333334</v>
       </c>
       <c r="B177">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -4871,10 +4871,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45977.82291666666</v>
+        <v>45977.84375</v>
       </c>
       <c r="B178">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45977.83333333334</v>
+        <v>45977.85416666666</v>
       </c>
       <c r="B179">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4899,10 +4899,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45977.84375</v>
+        <v>45977.86458333334</v>
       </c>
       <c r="B180">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4913,10 +4913,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45977.85416666666</v>
+        <v>45977.875</v>
       </c>
       <c r="B181">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45977.86458333334</v>
+        <v>45977.88541666666</v>
       </c>
       <c r="B182">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45977.875</v>
+        <v>45977.89583333334</v>
       </c>
       <c r="B183">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4955,10 +4955,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45977.88541666666</v>
+        <v>45977.90625</v>
       </c>
       <c r="B184">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4969,10 +4969,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45977.89583333334</v>
+        <v>45977.91666666666</v>
       </c>
       <c r="B185">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4983,10 +4983,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45977.90625</v>
+        <v>45977.92708333334</v>
       </c>
       <c r="B186">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45977.91666666666</v>
+        <v>45977.9375</v>
       </c>
       <c r="B187">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -5011,10 +5011,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45977.92708333334</v>
+        <v>45977.94791666666</v>
       </c>
       <c r="B188">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -5025,10 +5025,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45977.9375</v>
+        <v>45977.95833333334</v>
       </c>
       <c r="B189">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45977.94791666666</v>
+        <v>45977.96875</v>
       </c>
       <c r="B190">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -5053,10 +5053,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45977.95833333334</v>
+        <v>45977.97916666666</v>
       </c>
       <c r="B191">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -5067,10 +5067,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45977.96875</v>
+        <v>45977.98958333334</v>
       </c>
       <c r="B192">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45977.97916666666</v>
+        <v>45978</v>
       </c>
       <c r="B193">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -5095,10 +5095,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>45977.98958333334</v>
+        <v>45978.01041666666</v>
       </c>
       <c r="B194">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>45978</v>
+        <v>45978.02083333334</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -5123,10 +5123,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>45978.01041666666</v>
+        <v>45978.03125</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -5137,10 +5137,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>45978.02083333334</v>
+        <v>45978.04166666666</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -5151,10 +5151,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>45978.03125</v>
+        <v>45978.05208333334</v>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -5165,10 +5165,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>45978.04166666666</v>
+        <v>45978.0625</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -5179,10 +5179,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>45978.05208333334</v>
+        <v>45978.07291666666</v>
       </c>
       <c r="B200">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>45978.0625</v>
+        <v>45978.09375</v>
       </c>
       <c r="B201">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -5207,10 +5207,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>45978.07291666666</v>
+        <v>45978.10416666666</v>
       </c>
       <c r="B202">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -5221,10 +5221,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>45978.09375</v>
+        <v>45978.11458333334</v>
       </c>
       <c r="B203">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -5235,10 +5235,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>45978.10416666666</v>
+        <v>45978.125</v>
       </c>
       <c r="B204">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -5249,10 +5249,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>45978.11458333334</v>
+        <v>45978.13541666666</v>
       </c>
       <c r="B205">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -5263,10 +5263,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>45978.125</v>
+        <v>45978.14583333334</v>
       </c>
       <c r="B206">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -5277,10 +5277,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>45978.13541666666</v>
+        <v>45978.15625</v>
       </c>
       <c r="B207">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -5291,10 +5291,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>45978.14583333334</v>
+        <v>45978.16666666666</v>
       </c>
       <c r="B208">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -5305,10 +5305,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>45978.15625</v>
+        <v>45978.17708333334</v>
       </c>
       <c r="B209">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -5319,10 +5319,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>45978.16666666666</v>
+        <v>45978.1875</v>
       </c>
       <c r="B210">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -5333,10 +5333,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>45978.17708333334</v>
+        <v>45978.19791666666</v>
       </c>
       <c r="B211">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>45978.1875</v>
+        <v>45978.20833333334</v>
       </c>
       <c r="B212">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -5361,10 +5361,10 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>45978.19791666666</v>
+        <v>45978.21875</v>
       </c>
       <c r="B213">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -5375,10 +5375,10 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>45978.20833333334</v>
+        <v>45978.22916666666</v>
       </c>
       <c r="B214">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>45978.21875</v>
+        <v>45978.23958333334</v>
       </c>
       <c r="B215">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -5403,10 +5403,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>45978.22916666666</v>
+        <v>45978.25</v>
       </c>
       <c r="B216">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -5417,10 +5417,10 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>45978.23958333334</v>
+        <v>45978.26041666666</v>
       </c>
       <c r="B217">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -5431,10 +5431,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>45978.25</v>
+        <v>45978.27083333334</v>
       </c>
       <c r="B218">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -5445,10 +5445,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>45978.26041666666</v>
+        <v>45978.28125</v>
       </c>
       <c r="B219">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -5459,10 +5459,10 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>45978.27083333334</v>
+        <v>45978.29166666666</v>
       </c>
       <c r="B220">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -5473,10 +5473,10 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>45978.28125</v>
+        <v>45978.30208333334</v>
       </c>
       <c r="B221">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -5487,10 +5487,10 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>45978.29166666666</v>
+        <v>45978.3125</v>
       </c>
       <c r="B222">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -5501,13 +5501,13 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>45978.30208333334</v>
+        <v>45978.32291666666</v>
       </c>
       <c r="B223">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="D223" t="s">
         <v>225</v>
@@ -5515,13 +5515,13 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>45978.3125</v>
+        <v>45978.33333333334</v>
       </c>
       <c r="B224">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="D224" t="s">
         <v>226</v>
@@ -5529,13 +5529,13 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>45978.32291666666</v>
+        <v>45978.34375</v>
       </c>
       <c r="B225">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C225">
-        <v>0.028</v>
+        <v>0.092</v>
       </c>
       <c r="D225" t="s">
         <v>227</v>
@@ -5543,13 +5543,13 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>45978.33333333334</v>
+        <v>45978.35416666666</v>
       </c>
       <c r="B226">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C226">
-        <v>0.059</v>
+        <v>0.115</v>
       </c>
       <c r="D226" t="s">
         <v>228</v>
@@ -5557,13 +5557,13 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>45978.34375</v>
+        <v>45978.36458333334</v>
       </c>
       <c r="B227">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C227">
-        <v>0.092</v>
+        <v>0.17</v>
       </c>
       <c r="D227" t="s">
         <v>229</v>
@@ -5571,13 +5571,13 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>45978.35416666666</v>
+        <v>45978.375</v>
       </c>
       <c r="B228">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C228">
-        <v>0.115</v>
+        <v>0.222</v>
       </c>
       <c r="D228" t="s">
         <v>230</v>
@@ -5585,13 +5585,13 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>45978.36458333334</v>
+        <v>45978.38541666666</v>
       </c>
       <c r="B229">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C229">
-        <v>0.17</v>
+        <v>0.291</v>
       </c>
       <c r="D229" t="s">
         <v>231</v>
@@ -5599,13 +5599,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>45978.375</v>
+        <v>45978.39583333334</v>
       </c>
       <c r="B230">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C230">
-        <v>0.222</v>
+        <v>0.34</v>
       </c>
       <c r="D230" t="s">
         <v>232</v>
@@ -5613,13 +5613,13 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>45978.38541666666</v>
+        <v>45978.40625</v>
       </c>
       <c r="B231">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C231">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
       <c r="D231" t="s">
         <v>233</v>
@@ -5627,13 +5627,13 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>45978.39583333334</v>
+        <v>45978.41666666666</v>
       </c>
       <c r="B232">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C232">
-        <v>0.333</v>
+        <v>0.408</v>
       </c>
       <c r="D232" t="s">
         <v>234</v>
@@ -5641,13 +5641,13 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>45978.40625</v>
+        <v>45978.42708333334</v>
       </c>
       <c r="B233">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C233">
-        <v>0.4</v>
+        <v>0.441</v>
       </c>
       <c r="D233" t="s">
         <v>235</v>
@@ -5655,13 +5655,13 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>45978.41666666666</v>
+        <v>45978.4375</v>
       </c>
       <c r="B234">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C234">
-        <v>0.409</v>
+        <v>0.499</v>
       </c>
       <c r="D234" t="s">
         <v>236</v>
@@ -5669,13 +5669,13 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>45978.42708333334</v>
+        <v>45978.44791666666</v>
       </c>
       <c r="B235">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C235">
-        <v>0.484</v>
+        <v>0.516</v>
       </c>
       <c r="D235" t="s">
         <v>237</v>
@@ -5683,13 +5683,13 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>45978.4375</v>
+        <v>45978.45833333334</v>
       </c>
       <c r="B236">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C236">
-        <v>0.519</v>
+        <v>0.549</v>
       </c>
       <c r="D236" t="s">
         <v>238</v>
@@ -5697,13 +5697,13 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>45978.44791666666</v>
+        <v>45978.46875</v>
       </c>
       <c r="B237">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C237">
-        <v>0.532</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D237" t="s">
         <v>239</v>
@@ -5711,13 +5711,13 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>45978.45833333334</v>
+        <v>45978.47916666666</v>
       </c>
       <c r="B238">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C238">
-        <v>0.547</v>
+        <v>0.59</v>
       </c>
       <c r="D238" t="s">
         <v>240</v>
@@ -5725,13 +5725,13 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>45978.46875</v>
+        <v>45978.48958333334</v>
       </c>
       <c r="B239">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C239">
-        <v>0.5620000000000001</v>
+        <v>0.597</v>
       </c>
       <c r="D239" t="s">
         <v>241</v>
@@ -5739,13 +5739,13 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>45978.47916666666</v>
+        <v>45978.5</v>
       </c>
       <c r="B240">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C240">
-        <v>0.583</v>
+        <v>0.604</v>
       </c>
       <c r="D240" t="s">
         <v>242</v>
@@ -5753,13 +5753,13 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>45978.48958333334</v>
+        <v>45978.51041666666</v>
       </c>
       <c r="B241">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C241">
-        <v>0.598</v>
+        <v>0.59</v>
       </c>
       <c r="D241" t="s">
         <v>243</v>
@@ -5767,13 +5767,13 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>45978.5</v>
+        <v>45978.52083333334</v>
       </c>
       <c r="B242">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C242">
-        <v>0.601</v>
+        <v>0.583</v>
       </c>
       <c r="D242" t="s">
         <v>244</v>
@@ -5781,13 +5781,13 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>45978.51041666666</v>
+        <v>45978.53125</v>
       </c>
       <c r="B243">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C243">
-        <v>0.594</v>
+        <v>0.55</v>
       </c>
       <c r="D243" t="s">
         <v>245</v>
@@ -5795,13 +5795,13 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>45978.52083333334</v>
+        <v>45978.54166666666</v>
       </c>
       <c r="B244">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C244">
-        <v>0.576</v>
+        <v>0.541</v>
       </c>
       <c r="D244" t="s">
         <v>246</v>
@@ -5809,13 +5809,13 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>45978.53125</v>
+        <v>45978.55208333334</v>
       </c>
       <c r="B245">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C245">
-        <v>0.551</v>
+        <v>0.52</v>
       </c>
       <c r="D245" t="s">
         <v>247</v>
@@ -5823,13 +5823,13 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>45978.54166666666</v>
+        <v>45978.5625</v>
       </c>
       <c r="B246">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C246">
-        <v>0.541</v>
+        <v>0.482</v>
       </c>
       <c r="D246" t="s">
         <v>248</v>
@@ -5837,13 +5837,13 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>45978.55208333334</v>
+        <v>45978.57291666666</v>
       </c>
       <c r="B247">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C247">
-        <v>0.524</v>
+        <v>0.447</v>
       </c>
       <c r="D247" t="s">
         <v>249</v>
@@ -5851,13 +5851,13 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>45978.5625</v>
+        <v>45978.58333333334</v>
       </c>
       <c r="B248">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C248">
-        <v>0.489</v>
+        <v>0.395</v>
       </c>
       <c r="D248" t="s">
         <v>250</v>
@@ -5865,13 +5865,13 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>45978.57291666666</v>
+        <v>45978.59375</v>
       </c>
       <c r="B249">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C249">
-        <v>0.467</v>
+        <v>0.369</v>
       </c>
       <c r="D249" t="s">
         <v>251</v>
@@ -5879,13 +5879,13 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>45978.58333333334</v>
+        <v>45978.60416666666</v>
       </c>
       <c r="B250">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C250">
-        <v>0.359</v>
+        <v>0.328</v>
       </c>
       <c r="D250" t="s">
         <v>252</v>
@@ -5893,13 +5893,13 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>45978.59375</v>
+        <v>45978.61458333334</v>
       </c>
       <c r="B251">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C251">
-        <v>0.375</v>
+        <v>0.253</v>
       </c>
       <c r="D251" t="s">
         <v>253</v>
@@ -5907,13 +5907,13 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>45978.60416666666</v>
+        <v>45978.625</v>
       </c>
       <c r="B252">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C252">
-        <v>0.328</v>
+        <v>0.193</v>
       </c>
       <c r="D252" t="s">
         <v>254</v>
@@ -5921,13 +5921,13 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>45978.61458333334</v>
+        <v>45978.63541666666</v>
       </c>
       <c r="B253">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C253">
-        <v>0.253</v>
+        <v>0.152</v>
       </c>
       <c r="D253" t="s">
         <v>255</v>
@@ -5935,13 +5935,13 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>45978.625</v>
+        <v>45978.64583333334</v>
       </c>
       <c r="B254">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C254">
-        <v>0.199</v>
+        <v>0.115</v>
       </c>
       <c r="D254" t="s">
         <v>256</v>
@@ -5949,13 +5949,13 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>45978.63541666666</v>
+        <v>45978.65625</v>
       </c>
       <c r="B255">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C255">
-        <v>0.152</v>
+        <v>0.079</v>
       </c>
       <c r="D255" t="s">
         <v>257</v>
@@ -5963,13 +5963,13 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>45978.64583333334</v>
+        <v>45978.66666666666</v>
       </c>
       <c r="B256">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C256">
-        <v>0.11</v>
+        <v>0.053</v>
       </c>
       <c r="D256" t="s">
         <v>258</v>
@@ -5977,13 +5977,13 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>45978.65625</v>
+        <v>45978.67708333334</v>
       </c>
       <c r="B257">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C257">
-        <v>0.078</v>
+        <v>0.032</v>
       </c>
       <c r="D257" t="s">
         <v>259</v>
@@ -5991,13 +5991,13 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>45978.66666666666</v>
+        <v>45978.6875</v>
       </c>
       <c r="B258">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C258">
-        <v>0.053</v>
+        <v>0.011</v>
       </c>
       <c r="D258" t="s">
         <v>260</v>
@@ -6005,13 +6005,13 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>45978.67708333334</v>
+        <v>45978.69791666666</v>
       </c>
       <c r="B259">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C259">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="D259" t="s">
         <v>261</v>
@@ -6019,13 +6019,13 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>45978.6875</v>
+        <v>45978.70833333334</v>
       </c>
       <c r="B260">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C260">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="D260" t="s">
         <v>262</v>
@@ -6033,10 +6033,10 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>45978.69791666666</v>
+        <v>45978.71875</v>
       </c>
       <c r="B261">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -6047,10 +6047,10 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>45978.70833333334</v>
+        <v>45978.72916666666</v>
       </c>
       <c r="B262">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -6061,10 +6061,10 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>45978.71875</v>
+        <v>45978.73958333334</v>
       </c>
       <c r="B263">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -6075,10 +6075,10 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>45978.72916666666</v>
+        <v>45978.75</v>
       </c>
       <c r="B264">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -6089,10 +6089,10 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>45978.73958333334</v>
+        <v>45978.76041666666</v>
       </c>
       <c r="B265">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -6103,10 +6103,10 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>45978.75</v>
+        <v>45978.77083333334</v>
       </c>
       <c r="B266">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -6117,10 +6117,10 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>45978.76041666666</v>
+        <v>45978.78125</v>
       </c>
       <c r="B267">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -6131,10 +6131,10 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>45978.77083333334</v>
+        <v>45978.79166666666</v>
       </c>
       <c r="B268">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -6145,10 +6145,10 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>45978.78125</v>
+        <v>45978.80208333334</v>
       </c>
       <c r="B269">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -6159,10 +6159,10 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>45978.79166666666</v>
+        <v>45978.8125</v>
       </c>
       <c r="B270">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -6173,10 +6173,10 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>45978.80208333334</v>
+        <v>45978.82291666666</v>
       </c>
       <c r="B271">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -6187,10 +6187,10 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>45978.8125</v>
+        <v>45978.83333333334</v>
       </c>
       <c r="B272">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -6201,10 +6201,10 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>45978.82291666666</v>
+        <v>45978.84375</v>
       </c>
       <c r="B273">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -6215,10 +6215,10 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>45978.83333333334</v>
+        <v>45978.85416666666</v>
       </c>
       <c r="B274">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>45978.84375</v>
+        <v>45978.86458333334</v>
       </c>
       <c r="B275">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -6243,10 +6243,10 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>45978.85416666666</v>
+        <v>45978.875</v>
       </c>
       <c r="B276">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -6257,10 +6257,10 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>45978.86458333334</v>
+        <v>45978.88541666666</v>
       </c>
       <c r="B277">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -6271,10 +6271,10 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>45978.875</v>
+        <v>45978.89583333334</v>
       </c>
       <c r="B278">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -6285,10 +6285,10 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>45978.88541666666</v>
+        <v>45978.90625</v>
       </c>
       <c r="B279">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>45978.89583333334</v>
+        <v>45978.91666666666</v>
       </c>
       <c r="B280">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -6313,10 +6313,10 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>45978.90625</v>
+        <v>45978.92708333334</v>
       </c>
       <c r="B281">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -6327,10 +6327,10 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>45978.91666666666</v>
+        <v>45978.9375</v>
       </c>
       <c r="B282">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -6341,10 +6341,10 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>45978.92708333334</v>
+        <v>45978.94791666666</v>
       </c>
       <c r="B283">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -6355,10 +6355,10 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>45978.9375</v>
+        <v>45978.95833333334</v>
       </c>
       <c r="B284">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -6369,10 +6369,10 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>45978.94791666666</v>
+        <v>45978.96875</v>
       </c>
       <c r="B285">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -6383,10 +6383,10 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>45978.95833333334</v>
+        <v>45978.97916666666</v>
       </c>
       <c r="B286">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -6397,10 +6397,10 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>45978.96875</v>
+        <v>45978.98958333334</v>
       </c>
       <c r="B287">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -6411,10 +6411,10 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>45978.97916666666</v>
+        <v>45979</v>
       </c>
       <c r="B288">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>45978.98958333334</v>
+        <v>45979.01041666666</v>
       </c>
       <c r="B289">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>45979</v>
+        <v>45979.02083333334</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -6453,10 +6453,10 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>45979.01041666666</v>
+        <v>45979.03125</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -6467,10 +6467,10 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>45979.02083333334</v>
+        <v>45979.04166666666</v>
       </c>
       <c r="B292">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -6481,10 +6481,10 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>45979.03125</v>
+        <v>45979.05208333334</v>
       </c>
       <c r="B293">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -6495,10 +6495,10 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>45979.04166666666</v>
+        <v>45979.0625</v>
       </c>
       <c r="B294">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -6509,10 +6509,10 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>45979.05208333334</v>
+        <v>45979.07291666666</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -6523,10 +6523,10 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>45979.0625</v>
+        <v>45979.09375</v>
       </c>
       <c r="B296">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -6537,10 +6537,10 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>45979.07291666666</v>
+        <v>45979.10416666666</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -6551,10 +6551,10 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>45979.09375</v>
+        <v>45979.11458333334</v>
       </c>
       <c r="B298">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -6565,10 +6565,10 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>45979.10416666666</v>
+        <v>45979.125</v>
       </c>
       <c r="B299">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -6579,10 +6579,10 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>45979.11458333334</v>
+        <v>45979.13541666666</v>
       </c>
       <c r="B300">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -6593,10 +6593,10 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>45979.125</v>
+        <v>45979.14583333334</v>
       </c>
       <c r="B301">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -6607,10 +6607,10 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>45979.13541666666</v>
+        <v>45979.15625</v>
       </c>
       <c r="B302">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -6621,10 +6621,10 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>45979.14583333334</v>
+        <v>45979.16666666666</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -6635,10 +6635,10 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>45979.15625</v>
+        <v>45979.17708333334</v>
       </c>
       <c r="B304">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -6649,10 +6649,10 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>45979.16666666666</v>
+        <v>45979.1875</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -6663,10 +6663,10 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>45979.17708333334</v>
+        <v>45979.19791666666</v>
       </c>
       <c r="B306">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -6677,10 +6677,10 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>45979.1875</v>
+        <v>45979.20833333334</v>
       </c>
       <c r="B307">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -6691,10 +6691,10 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>45979.19791666666</v>
+        <v>45979.21875</v>
       </c>
       <c r="B308">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -6705,10 +6705,10 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>45979.20833333334</v>
+        <v>45979.22916666666</v>
       </c>
       <c r="B309">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -6719,10 +6719,10 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>45979.21875</v>
+        <v>45979.23958333334</v>
       </c>
       <c r="B310">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -6733,10 +6733,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>45979.22916666666</v>
+        <v>45979.25</v>
       </c>
       <c r="B311">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -6747,10 +6747,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>45979.23958333334</v>
+        <v>45979.26041666666</v>
       </c>
       <c r="B312">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -6761,10 +6761,10 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>45979.25</v>
+        <v>45979.27083333334</v>
       </c>
       <c r="B313">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -6775,10 +6775,10 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>45979.26041666666</v>
+        <v>45979.28125</v>
       </c>
       <c r="B314">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -6789,10 +6789,10 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>45979.27083333334</v>
+        <v>45979.29166666666</v>
       </c>
       <c r="B315">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -6803,10 +6803,10 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>45979.28125</v>
+        <v>45979.30208333334</v>
       </c>
       <c r="B316">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -6817,10 +6817,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>45979.29166666666</v>
+        <v>45979.3125</v>
       </c>
       <c r="B317">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -6831,13 +6831,13 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>45979.30208333334</v>
+        <v>45979.32291666666</v>
       </c>
       <c r="B318">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="D318" t="s">
         <v>320</v>
@@ -6845,13 +6845,13 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>45979.3125</v>
+        <v>45979.33333333334</v>
       </c>
       <c r="B319">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C319">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="D319" t="s">
         <v>321</v>
@@ -6859,13 +6859,13 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>45979.32291666666</v>
+        <v>45979.34375</v>
       </c>
       <c r="B320">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C320">
-        <v>0.014</v>
+        <v>0.059</v>
       </c>
       <c r="D320" t="s">
         <v>322</v>
@@ -6873,13 +6873,13 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>45979.33333333334</v>
+        <v>45979.35416666666</v>
       </c>
       <c r="B321">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C321">
-        <v>0.045</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D321" t="s">
         <v>323</v>
@@ -6887,13 +6887,13 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>45979.34375</v>
+        <v>45979.36458333334</v>
       </c>
       <c r="B322">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C322">
-        <v>0.06</v>
+        <v>0.103</v>
       </c>
       <c r="D322" t="s">
         <v>324</v>
@@ -6901,13 +6901,13 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>45979.35416666666</v>
+        <v>45979.375</v>
       </c>
       <c r="B323">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C323">
-        <v>0.102</v>
+        <v>0.133</v>
       </c>
       <c r="D323" t="s">
         <v>325</v>
@@ -6915,13 +6915,13 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>45979.36458333334</v>
+        <v>45979.38541666666</v>
       </c>
       <c r="B324">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C324">
-        <v>0.116</v>
+        <v>0.173</v>
       </c>
       <c r="D324" t="s">
         <v>326</v>
@@ -6929,13 +6929,13 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>45979.375</v>
+        <v>45979.39583333334</v>
       </c>
       <c r="B325">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C325">
-        <v>0.159</v>
+        <v>0.198</v>
       </c>
       <c r="D325" t="s">
         <v>327</v>
@@ -6943,13 +6943,13 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>45979.38541666666</v>
+        <v>45979.40625</v>
       </c>
       <c r="B326">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C326">
-        <v>0.192</v>
+        <v>0.212</v>
       </c>
       <c r="D326" t="s">
         <v>328</v>
@@ -6957,13 +6957,13 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>45979.39583333334</v>
+        <v>45979.41666666666</v>
       </c>
       <c r="B327">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C327">
-        <v>0.205</v>
+        <v>0.254</v>
       </c>
       <c r="D327" t="s">
         <v>329</v>
@@ -6971,13 +6971,13 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>45979.40625</v>
+        <v>45979.42708333334</v>
       </c>
       <c r="B328">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C328">
-        <v>0.274</v>
+        <v>0.317</v>
       </c>
       <c r="D328" t="s">
         <v>330</v>
@@ -6985,13 +6985,13 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>45979.41666666666</v>
+        <v>45979.4375</v>
       </c>
       <c r="B329">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C329">
-        <v>0.313</v>
+        <v>0.312</v>
       </c>
       <c r="D329" t="s">
         <v>331</v>
@@ -6999,13 +6999,13 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>45979.42708333334</v>
+        <v>45979.44791666666</v>
       </c>
       <c r="B330">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C330">
-        <v>0.317</v>
+        <v>0.307</v>
       </c>
       <c r="D330" t="s">
         <v>332</v>
@@ -7013,13 +7013,13 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>45979.4375</v>
+        <v>45979.45833333334</v>
       </c>
       <c r="B331">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C331">
-        <v>0.365</v>
+        <v>0.339</v>
       </c>
       <c r="D331" t="s">
         <v>333</v>
@@ -7027,13 +7027,13 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>45979.44791666666</v>
+        <v>45979.46875</v>
       </c>
       <c r="B332">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C332">
-        <v>0.365</v>
+        <v>0.339</v>
       </c>
       <c r="D332" t="s">
         <v>334</v>
@@ -7041,13 +7041,13 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>45979.45833333334</v>
+        <v>45979.47916666666</v>
       </c>
       <c r="B333">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C333">
-        <v>0.366</v>
+        <v>0.353</v>
       </c>
       <c r="D333" t="s">
         <v>335</v>
@@ -7055,13 +7055,13 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>45979.46875</v>
+        <v>45979.48958333334</v>
       </c>
       <c r="B334">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C334">
-        <v>0.368</v>
+        <v>0.359</v>
       </c>
       <c r="D334" t="s">
         <v>336</v>
@@ -7069,13 +7069,13 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>45979.47916666666</v>
+        <v>45979.5</v>
       </c>
       <c r="B335">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C335">
-        <v>0.356</v>
+        <v>0.341</v>
       </c>
       <c r="D335" t="s">
         <v>337</v>
@@ -7083,13 +7083,13 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>45979.48958333334</v>
+        <v>45979.51041666666</v>
       </c>
       <c r="B336">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C336">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="D336" t="s">
         <v>338</v>
@@ -7097,13 +7097,13 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>45979.5</v>
+        <v>45979.52083333334</v>
       </c>
       <c r="B337">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C337">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="D337" t="s">
         <v>339</v>
@@ -7111,13 +7111,13 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>45979.51041666666</v>
+        <v>45979.53125</v>
       </c>
       <c r="B338">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C338">
-        <v>0.342</v>
+        <v>0.359</v>
       </c>
       <c r="D338" t="s">
         <v>340</v>
@@ -7125,13 +7125,13 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>45979.52083333334</v>
+        <v>45979.54166666666</v>
       </c>
       <c r="B339">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C339">
-        <v>0.337</v>
+        <v>0.35</v>
       </c>
       <c r="D339" t="s">
         <v>341</v>
@@ -7139,13 +7139,13 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>45979.53125</v>
+        <v>45979.55208333334</v>
       </c>
       <c r="B340">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C340">
-        <v>0.354</v>
+        <v>0.388</v>
       </c>
       <c r="D340" t="s">
         <v>342</v>
@@ -7153,13 +7153,13 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>45979.54166666666</v>
+        <v>45979.5625</v>
       </c>
       <c r="B341">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C341">
-        <v>0.352</v>
+        <v>0.376</v>
       </c>
       <c r="D341" t="s">
         <v>343</v>
@@ -7167,13 +7167,13 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>45979.55208333334</v>
+        <v>45979.57291666666</v>
       </c>
       <c r="B342">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C342">
-        <v>0.387</v>
+        <v>0.288</v>
       </c>
       <c r="D342" t="s">
         <v>344</v>
@@ -7181,13 +7181,13 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>45979.5625</v>
+        <v>45979.58333333334</v>
       </c>
       <c r="B343">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C343">
-        <v>0.359</v>
+        <v>0.229</v>
       </c>
       <c r="D343" t="s">
         <v>345</v>
@@ -7195,13 +7195,13 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>45979.57291666666</v>
+        <v>45979.59375</v>
       </c>
       <c r="B344">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C344">
-        <v>0.282</v>
+        <v>0.189</v>
       </c>
       <c r="D344" t="s">
         <v>346</v>
@@ -7209,13 +7209,13 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>45979.58333333334</v>
+        <v>45979.60416666666</v>
       </c>
       <c r="B345">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C345">
-        <v>0.223</v>
+        <v>0.202</v>
       </c>
       <c r="D345" t="s">
         <v>347</v>
@@ -7223,13 +7223,13 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>45979.59375</v>
+        <v>45979.61458333334</v>
       </c>
       <c r="B346">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C346">
-        <v>0.195</v>
+        <v>0.186</v>
       </c>
       <c r="D346" t="s">
         <v>348</v>
@@ -7237,13 +7237,13 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>45979.60416666666</v>
+        <v>45979.625</v>
       </c>
       <c r="B347">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C347">
-        <v>0.201</v>
+        <v>0.136</v>
       </c>
       <c r="D347" t="s">
         <v>349</v>
@@ -7251,13 +7251,13 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>45979.61458333334</v>
+        <v>45979.63541666666</v>
       </c>
       <c r="B348">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C348">
-        <v>0.186</v>
+        <v>0.114</v>
       </c>
       <c r="D348" t="s">
         <v>350</v>
@@ -7265,13 +7265,13 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>45979.625</v>
+        <v>45979.64583333334</v>
       </c>
       <c r="B349">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C349">
-        <v>0.15</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D349" t="s">
         <v>351</v>
@@ -7279,13 +7279,13 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>45979.63541666666</v>
+        <v>45979.65625</v>
       </c>
       <c r="B350">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C350">
-        <v>0.114</v>
+        <v>0.065</v>
       </c>
       <c r="D350" t="s">
         <v>352</v>
@@ -7293,13 +7293,13 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>45979.64583333334</v>
+        <v>45979.66666666666</v>
       </c>
       <c r="B351">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C351">
-        <v>0.08599999999999999</v>
+        <v>0.047</v>
       </c>
       <c r="D351" t="s">
         <v>353</v>
@@ -7307,13 +7307,13 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>45979.65625</v>
+        <v>45979.67708333334</v>
       </c>
       <c r="B352">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C352">
-        <v>0.066</v>
+        <v>0.032</v>
       </c>
       <c r="D352" t="s">
         <v>354</v>
@@ -7321,13 +7321,13 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>45979.66666666666</v>
+        <v>45979.6875</v>
       </c>
       <c r="B353">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C353">
-        <v>0.048</v>
+        <v>0.011</v>
       </c>
       <c r="D353" t="s">
         <v>355</v>
@@ -7335,13 +7335,13 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>45979.67708333334</v>
+        <v>45979.69791666666</v>
       </c>
       <c r="B354">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C354">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="D354" t="s">
         <v>356</v>
@@ -7349,13 +7349,13 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>45979.6875</v>
+        <v>45979.70833333334</v>
       </c>
       <c r="B355">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C355">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="D355" t="s">
         <v>357</v>
@@ -7363,10 +7363,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>45979.69791666666</v>
+        <v>45979.71875</v>
       </c>
       <c r="B356">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -7377,10 +7377,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>45979.70833333334</v>
+        <v>45979.72916666666</v>
       </c>
       <c r="B357">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -7391,10 +7391,10 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>45979.71875</v>
+        <v>45979.73958333334</v>
       </c>
       <c r="B358">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -7405,10 +7405,10 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>45979.72916666666</v>
+        <v>45979.75</v>
       </c>
       <c r="B359">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -7419,10 +7419,10 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>45979.73958333334</v>
+        <v>45979.76041666666</v>
       </c>
       <c r="B360">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -7433,10 +7433,10 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>45979.75</v>
+        <v>45979.77083333334</v>
       </c>
       <c r="B361">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -7447,10 +7447,10 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>45979.76041666666</v>
+        <v>45979.78125</v>
       </c>
       <c r="B362">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -7461,10 +7461,10 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>45979.77083333334</v>
+        <v>45979.79166666666</v>
       </c>
       <c r="B363">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -7475,10 +7475,10 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>45979.78125</v>
+        <v>45979.80208333334</v>
       </c>
       <c r="B364">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -7489,10 +7489,10 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>45979.79166666666</v>
+        <v>45979.8125</v>
       </c>
       <c r="B365">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -7503,10 +7503,10 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>45979.80208333334</v>
+        <v>45979.82291666666</v>
       </c>
       <c r="B366">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -7517,10 +7517,10 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>45979.8125</v>
+        <v>45979.83333333334</v>
       </c>
       <c r="B367">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -7531,10 +7531,10 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>45979.82291666666</v>
+        <v>45979.84375</v>
       </c>
       <c r="B368">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -7545,10 +7545,10 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>45979.83333333334</v>
+        <v>45979.85416666666</v>
       </c>
       <c r="B369">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -7559,10 +7559,10 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>45979.84375</v>
+        <v>45979.86458333334</v>
       </c>
       <c r="B370">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -7573,10 +7573,10 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>45979.85416666666</v>
+        <v>45979.875</v>
       </c>
       <c r="B371">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -7587,10 +7587,10 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>45979.86458333334</v>
+        <v>45979.88541666666</v>
       </c>
       <c r="B372">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -7601,10 +7601,10 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>45979.875</v>
+        <v>45979.89583333334</v>
       </c>
       <c r="B373">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -7615,10 +7615,10 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>45979.88541666666</v>
+        <v>45979.90625</v>
       </c>
       <c r="B374">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -7629,10 +7629,10 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>45979.89583333334</v>
+        <v>45979.91666666666</v>
       </c>
       <c r="B375">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -7643,10 +7643,10 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2">
-        <v>45979.90625</v>
+        <v>45979.92708333334</v>
       </c>
       <c r="B376">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -7657,10 +7657,10 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2">
-        <v>45979.91666666666</v>
+        <v>45979.9375</v>
       </c>
       <c r="B377">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -7671,10 +7671,10 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2">
-        <v>45979.92708333334</v>
+        <v>45979.94791666666</v>
       </c>
       <c r="B378">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -7685,10 +7685,10 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2">
-        <v>45979.9375</v>
+        <v>45979.95833333334</v>
       </c>
       <c r="B379">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -7699,10 +7699,10 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2">
-        <v>45979.94791666666</v>
+        <v>45979.96875</v>
       </c>
       <c r="B380">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -7713,10 +7713,10 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2">
-        <v>45979.95833333334</v>
+        <v>45979.97916666666</v>
       </c>
       <c r="B381">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -7727,10 +7727,10 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2">
-        <v>45979.96875</v>
+        <v>45979.98958333334</v>
       </c>
       <c r="B382">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -7741,10 +7741,10 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2">
-        <v>45979.97916666666</v>
+        <v>45980</v>
       </c>
       <c r="B383">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -7755,10 +7755,10 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2">
-        <v>45979.98958333334</v>
+        <v>45980.01041666666</v>
       </c>
       <c r="B384">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -7769,10 +7769,10 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2">
-        <v>45980</v>
+        <v>45980.02083333334</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -7783,10 +7783,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2">
-        <v>45980.01041666666</v>
+        <v>45980.03125</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -7797,10 +7797,10 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2">
-        <v>45980.02083333334</v>
+        <v>45980.04166666666</v>
       </c>
       <c r="B387">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -7811,10 +7811,10 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2">
-        <v>45980.03125</v>
+        <v>45980.05208333334</v>
       </c>
       <c r="B388">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -7825,10 +7825,10 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2">
-        <v>45980.04166666666</v>
+        <v>45980.0625</v>
       </c>
       <c r="B389">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -7839,10 +7839,10 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2">
-        <v>45980.05208333334</v>
+        <v>45980.07291666666</v>
       </c>
       <c r="B390">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -7853,10 +7853,10 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2">
-        <v>45980.0625</v>
+        <v>45980.09375</v>
       </c>
       <c r="B391">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -7867,10 +7867,10 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2">
-        <v>45980.07291666666</v>
+        <v>45980.10416666666</v>
       </c>
       <c r="B392">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -7881,10 +7881,10 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2">
-        <v>45980.09375</v>
+        <v>45980.11458333334</v>
       </c>
       <c r="B393">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -7895,10 +7895,10 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2">
-        <v>45980.10416666666</v>
+        <v>45980.125</v>
       </c>
       <c r="B394">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -7909,10 +7909,10 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2">
-        <v>45980.11458333334</v>
+        <v>45980.13541666666</v>
       </c>
       <c r="B395">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -7923,10 +7923,10 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2">
-        <v>45980.125</v>
+        <v>45980.14583333334</v>
       </c>
       <c r="B396">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -7937,10 +7937,10 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2">
-        <v>45980.13541666666</v>
+        <v>45980.15625</v>
       </c>
       <c r="B397">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -7951,10 +7951,10 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2">
-        <v>45980.14583333334</v>
+        <v>45980.16666666666</v>
       </c>
       <c r="B398">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -7965,10 +7965,10 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2">
-        <v>45980.15625</v>
+        <v>45980.17708333334</v>
       </c>
       <c r="B399">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -7979,10 +7979,10 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2">
-        <v>45980.16666666666</v>
+        <v>45980.1875</v>
       </c>
       <c r="B400">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -7993,10 +7993,10 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2">
-        <v>45980.17708333334</v>
+        <v>45980.19791666666</v>
       </c>
       <c r="B401">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -8007,10 +8007,10 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2">
-        <v>45980.1875</v>
+        <v>45980.20833333334</v>
       </c>
       <c r="B402">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -8021,10 +8021,10 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2">
-        <v>45980.19791666666</v>
+        <v>45980.21875</v>
       </c>
       <c r="B403">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -8035,10 +8035,10 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2">
-        <v>45980.20833333334</v>
+        <v>45980.22916666666</v>
       </c>
       <c r="B404">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -8049,10 +8049,10 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2">
-        <v>45980.21875</v>
+        <v>45980.23958333334</v>
       </c>
       <c r="B405">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -8063,10 +8063,10 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2">
-        <v>45980.22916666666</v>
+        <v>45980.25</v>
       </c>
       <c r="B406">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -8077,10 +8077,10 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2">
-        <v>45980.23958333334</v>
+        <v>45980.26041666666</v>
       </c>
       <c r="B407">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -8091,10 +8091,10 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2">
-        <v>45980.25</v>
+        <v>45980.27083333334</v>
       </c>
       <c r="B408">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -8105,10 +8105,10 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2">
-        <v>45980.26041666666</v>
+        <v>45980.28125</v>
       </c>
       <c r="B409">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -8119,10 +8119,10 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2">
-        <v>45980.27083333334</v>
+        <v>45980.29166666666</v>
       </c>
       <c r="B410">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -8133,10 +8133,10 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2">
-        <v>45980.28125</v>
+        <v>45980.30208333334</v>
       </c>
       <c r="B411">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -8147,10 +8147,10 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="2">
-        <v>45980.29166666666</v>
+        <v>45980.3125</v>
       </c>
       <c r="B412">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -8161,10 +8161,10 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2">
-        <v>45980.30208333334</v>
+        <v>45980.32291666666</v>
       </c>
       <c r="B413">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -8175,13 +8175,13 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="2">
-        <v>45980.3125</v>
+        <v>45980.33333333334</v>
       </c>
       <c r="B414">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C414">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="D414" t="s">
         <v>416</v>
@@ -8189,13 +8189,13 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2">
-        <v>45980.32291666666</v>
+        <v>45980.34375</v>
       </c>
       <c r="B415">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C415">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="D415" t="s">
         <v>417</v>
@@ -8203,13 +8203,13 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2">
-        <v>45980.33333333334</v>
+        <v>45980.35416666666</v>
       </c>
       <c r="B416">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C416">
-        <v>0.012</v>
+        <v>0.033</v>
       </c>
       <c r="D416" t="s">
         <v>418</v>
@@ -8217,13 +8217,13 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2">
-        <v>45980.34375</v>
+        <v>45980.36458333334</v>
       </c>
       <c r="B417">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C417">
-        <v>0.026</v>
+        <v>0.043</v>
       </c>
       <c r="D417" t="s">
         <v>419</v>
@@ -8231,13 +8231,13 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2">
-        <v>45980.35416666666</v>
+        <v>45980.375</v>
       </c>
       <c r="B418">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C418">
-        <v>0.034</v>
+        <v>0.056</v>
       </c>
       <c r="D418" t="s">
         <v>420</v>
@@ -8245,13 +8245,13 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2">
-        <v>45980.36458333334</v>
+        <v>45980.38541666666</v>
       </c>
       <c r="B419">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C419">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="D419" t="s">
         <v>421</v>
@@ -8259,13 +8259,13 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2">
-        <v>45980.375</v>
+        <v>45980.39583333334</v>
       </c>
       <c r="B420">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C420">
-        <v>0.066</v>
+        <v>0.09</v>
       </c>
       <c r="D420" t="s">
         <v>422</v>
@@ -8273,13 +8273,13 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2">
-        <v>45980.38541666666</v>
+        <v>45980.40625</v>
       </c>
       <c r="B421">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C421">
-        <v>0.08599999999999999</v>
+        <v>0.096</v>
       </c>
       <c r="D421" t="s">
         <v>423</v>
@@ -8287,13 +8287,13 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="2">
-        <v>45980.39583333334</v>
+        <v>45980.41666666666</v>
       </c>
       <c r="B422">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C422">
-        <v>0.099</v>
+        <v>0.117</v>
       </c>
       <c r="D422" t="s">
         <v>424</v>
@@ -8301,13 +8301,13 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2">
-        <v>45980.40625</v>
+        <v>45980.42708333334</v>
       </c>
       <c r="B423">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C423">
-        <v>0.108</v>
+        <v>0.13</v>
       </c>
       <c r="D423" t="s">
         <v>425</v>
@@ -8315,13 +8315,13 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2">
-        <v>45980.41666666666</v>
+        <v>45980.4375</v>
       </c>
       <c r="B424">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C424">
-        <v>0.13</v>
+        <v>0.148</v>
       </c>
       <c r="D424" t="s">
         <v>426</v>
@@ -8329,13 +8329,13 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2">
-        <v>45980.42708333334</v>
+        <v>45980.44791666666</v>
       </c>
       <c r="B425">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C425">
-        <v>0.143</v>
+        <v>0.169</v>
       </c>
       <c r="D425" t="s">
         <v>427</v>
@@ -8343,13 +8343,13 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2">
-        <v>45980.4375</v>
+        <v>45980.45833333334</v>
       </c>
       <c r="B426">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C426">
-        <v>0.165</v>
+        <v>0.172</v>
       </c>
       <c r="D426" t="s">
         <v>428</v>
@@ -8357,13 +8357,13 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2">
-        <v>45980.44791666666</v>
+        <v>45980.46875</v>
       </c>
       <c r="B427">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C427">
-        <v>0.175</v>
+        <v>0.174</v>
       </c>
       <c r="D427" t="s">
         <v>429</v>
@@ -8371,13 +8371,13 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2">
-        <v>45980.45833333334</v>
+        <v>45980.47916666666</v>
       </c>
       <c r="B428">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C428">
-        <v>0.186</v>
+        <v>0.166</v>
       </c>
       <c r="D428" t="s">
         <v>430</v>
@@ -8385,13 +8385,13 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2">
-        <v>45980.46875</v>
+        <v>45980.48958333334</v>
       </c>
       <c r="B429">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C429">
-        <v>0.188</v>
+        <v>0.157</v>
       </c>
       <c r="D429" t="s">
         <v>431</v>
@@ -8399,13 +8399,13 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="2">
-        <v>45980.47916666666</v>
+        <v>45980.5</v>
       </c>
       <c r="B430">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C430">
-        <v>0.17</v>
+        <v>0.139</v>
       </c>
       <c r="D430" t="s">
         <v>432</v>
@@ -8413,13 +8413,13 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2">
-        <v>45980.48958333334</v>
+        <v>45980.51041666666</v>
       </c>
       <c r="B431">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C431">
-        <v>0.157</v>
+        <v>0.131</v>
       </c>
       <c r="D431" t="s">
         <v>433</v>
@@ -8427,13 +8427,13 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2">
-        <v>45980.5</v>
+        <v>45980.52083333334</v>
       </c>
       <c r="B432">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C432">
-        <v>0.139</v>
+        <v>0.122</v>
       </c>
       <c r="D432" t="s">
         <v>434</v>
@@ -8441,13 +8441,13 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="2">
-        <v>45980.51041666666</v>
+        <v>45980.53125</v>
       </c>
       <c r="B433">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C433">
-        <v>0.123</v>
+        <v>0.11</v>
       </c>
       <c r="D433" t="s">
         <v>435</v>
@@ -8455,13 +8455,13 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="2">
-        <v>45980.52083333334</v>
+        <v>45980.54166666666</v>
       </c>
       <c r="B434">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C434">
-        <v>0.121</v>
+        <v>0.09</v>
       </c>
       <c r="D434" t="s">
         <v>436</v>
@@ -8469,13 +8469,13 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="2">
-        <v>45980.53125</v>
+        <v>45980.55208333334</v>
       </c>
       <c r="B435">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C435">
-        <v>0.112</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D435" t="s">
         <v>437</v>
@@ -8483,13 +8483,13 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="2">
-        <v>45980.54166666666</v>
+        <v>45980.5625</v>
       </c>
       <c r="B436">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C436">
-        <v>0.097</v>
+        <v>0.075</v>
       </c>
       <c r="D436" t="s">
         <v>438</v>
@@ -8497,13 +8497,13 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="2">
-        <v>45980.55208333334</v>
+        <v>45980.57291666666</v>
       </c>
       <c r="B437">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C437">
-        <v>0.09</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D437" t="s">
         <v>439</v>
@@ -8511,13 +8511,13 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="2">
-        <v>45980.5625</v>
+        <v>45980.58333333334</v>
       </c>
       <c r="B438">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C438">
-        <v>0.08</v>
+        <v>0.062</v>
       </c>
       <c r="D438" t="s">
         <v>440</v>
@@ -8525,13 +8525,13 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2">
-        <v>45980.57291666666</v>
+        <v>45980.59375</v>
       </c>
       <c r="B439">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C439">
-        <v>0.068</v>
+        <v>0.054</v>
       </c>
       <c r="D439" t="s">
         <v>441</v>
@@ -8539,13 +8539,13 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2">
-        <v>45980.58333333334</v>
+        <v>45980.60416666666</v>
       </c>
       <c r="B440">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C440">
-        <v>0.063</v>
+        <v>0.049</v>
       </c>
       <c r="D440" t="s">
         <v>442</v>
@@ -8553,13 +8553,13 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="2">
-        <v>45980.59375</v>
+        <v>45980.61458333334</v>
       </c>
       <c r="B441">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C441">
-        <v>0.055</v>
+        <v>0.042</v>
       </c>
       <c r="D441" t="s">
         <v>443</v>
@@ -8567,13 +8567,13 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="2">
-        <v>45980.60416666666</v>
+        <v>45980.625</v>
       </c>
       <c r="B442">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C442">
-        <v>0.054</v>
+        <v>0.039</v>
       </c>
       <c r="D442" t="s">
         <v>444</v>
@@ -8581,13 +8581,13 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2">
-        <v>45980.61458333334</v>
+        <v>45980.63541666666</v>
       </c>
       <c r="B443">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C443">
-        <v>0.054</v>
+        <v>0.034</v>
       </c>
       <c r="D443" t="s">
         <v>445</v>
@@ -8595,13 +8595,13 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="2">
-        <v>45980.625</v>
+        <v>45980.64583333334</v>
       </c>
       <c r="B444">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C444">
-        <v>0.045</v>
+        <v>0.028</v>
       </c>
       <c r="D444" t="s">
         <v>446</v>
@@ -8609,13 +8609,13 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="2">
-        <v>45980.63541666666</v>
+        <v>45980.65625</v>
       </c>
       <c r="B445">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C445">
-        <v>0.041</v>
+        <v>0.024</v>
       </c>
       <c r="D445" t="s">
         <v>447</v>
@@ -8623,13 +8623,13 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="2">
-        <v>45980.64583333334</v>
+        <v>45980.66666666666</v>
       </c>
       <c r="B446">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C446">
-        <v>0.031</v>
+        <v>0.016</v>
       </c>
       <c r="D446" t="s">
         <v>448</v>
@@ -8637,13 +8637,13 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="2">
-        <v>45980.65625</v>
+        <v>45980.67708333334</v>
       </c>
       <c r="B447">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C447">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="D447" t="s">
         <v>449</v>
@@ -8651,13 +8651,13 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="2">
-        <v>45980.66666666666</v>
+        <v>45980.6875</v>
       </c>
       <c r="B448">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C448">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="D448" t="s">
         <v>450</v>
@@ -8665,13 +8665,13 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2">
-        <v>45980.67708333334</v>
+        <v>45980.69791666666</v>
       </c>
       <c r="B449">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C449">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="D449" t="s">
         <v>451</v>
@@ -8679,10 +8679,10 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="2">
-        <v>45980.6875</v>
+        <v>45980.70833333334</v>
       </c>
       <c r="B450">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -8693,10 +8693,10 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="2">
-        <v>45980.69791666666</v>
+        <v>45980.71875</v>
       </c>
       <c r="B451">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -8707,10 +8707,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2">
-        <v>45980.70833333334</v>
+        <v>45980.72916666666</v>
       </c>
       <c r="B452">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -8721,10 +8721,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2">
-        <v>45980.71875</v>
+        <v>45980.73958333334</v>
       </c>
       <c r="B453">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2">
-        <v>45980.72916666666</v>
+        <v>45980.75</v>
       </c>
       <c r="B454">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -8749,10 +8749,10 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2">
-        <v>45980.73958333334</v>
+        <v>45980.76041666666</v>
       </c>
       <c r="B455">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -8763,10 +8763,10 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="2">
-        <v>45980.75</v>
+        <v>45980.77083333334</v>
       </c>
       <c r="B456">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -8777,10 +8777,10 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="2">
-        <v>45980.76041666666</v>
+        <v>45980.78125</v>
       </c>
       <c r="B457">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -8791,10 +8791,10 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="2">
-        <v>45980.77083333334</v>
+        <v>45980.79166666666</v>
       </c>
       <c r="B458">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -8805,10 +8805,10 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="2">
-        <v>45980.78125</v>
+        <v>45980.80208333334</v>
       </c>
       <c r="B459">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -8819,10 +8819,10 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2">
-        <v>45980.79166666666</v>
+        <v>45980.8125</v>
       </c>
       <c r="B460">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -8833,10 +8833,10 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="2">
-        <v>45980.80208333334</v>
+        <v>45980.82291666666</v>
       </c>
       <c r="B461">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="2">
-        <v>45980.8125</v>
+        <v>45980.83333333334</v>
       </c>
       <c r="B462">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -8861,10 +8861,10 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="2">
-        <v>45980.82291666666</v>
+        <v>45980.84375</v>
       </c>
       <c r="B463">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -8875,10 +8875,10 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="2">
-        <v>45980.83333333334</v>
+        <v>45980.85416666666</v>
       </c>
       <c r="B464">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -8889,10 +8889,10 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="2">
-        <v>45980.84375</v>
+        <v>45980.86458333334</v>
       </c>
       <c r="B465">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -8903,10 +8903,10 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="2">
-        <v>45980.85416666666</v>
+        <v>45980.875</v>
       </c>
       <c r="B466">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -8917,10 +8917,10 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="2">
-        <v>45980.86458333334</v>
+        <v>45980.88541666666</v>
       </c>
       <c r="B467">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -8931,10 +8931,10 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="2">
-        <v>45980.875</v>
+        <v>45980.89583333334</v>
       </c>
       <c r="B468">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C468">
         <v>0</v>
@@ -8945,10 +8945,10 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="2">
-        <v>45980.88541666666</v>
+        <v>45980.90625</v>
       </c>
       <c r="B469">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -8959,10 +8959,10 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="2">
-        <v>45980.89583333334</v>
+        <v>45980.91666666666</v>
       </c>
       <c r="B470">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -8973,10 +8973,10 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="2">
-        <v>45980.90625</v>
+        <v>45980.92708333334</v>
       </c>
       <c r="B471">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -8987,10 +8987,10 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="2">
-        <v>45980.91666666666</v>
+        <v>45980.9375</v>
       </c>
       <c r="B472">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -9001,10 +9001,10 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="2">
-        <v>45980.92708333334</v>
+        <v>45980.94791666666</v>
       </c>
       <c r="B473">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -9015,10 +9015,10 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="2">
-        <v>45980.9375</v>
+        <v>45980.95833333334</v>
       </c>
       <c r="B474">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -9029,10 +9029,10 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="2">
-        <v>45980.94791666666</v>
+        <v>45980.96875</v>
       </c>
       <c r="B475">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -9043,10 +9043,10 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="2">
-        <v>45980.95833333334</v>
+        <v>45980.97916666666</v>
       </c>
       <c r="B476">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -9057,10 +9057,10 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="2">
-        <v>45980.96875</v>
+        <v>45980.98958333334</v>
       </c>
       <c r="B477">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -9071,10 +9071,10 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="2">
-        <v>45980.97916666666</v>
+        <v>45981</v>
       </c>
       <c r="B478">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -9085,10 +9085,10 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="2">
-        <v>45980.98958333334</v>
+        <v>45981.01041666666</v>
       </c>
       <c r="B479">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -9099,10 +9099,10 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="2">
-        <v>45981</v>
+        <v>45981.02083333334</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -9113,10 +9113,10 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="2">
-        <v>45981.01041666666</v>
+        <v>45981.03125</v>
       </c>
       <c r="B481">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -9127,10 +9127,10 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="2">
-        <v>45981.02083333334</v>
+        <v>45981.04166666666</v>
       </c>
       <c r="B482">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -9141,10 +9141,10 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="2">
-        <v>45981.03125</v>
+        <v>45981.05208333334</v>
       </c>
       <c r="B483">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -9155,10 +9155,10 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="2">
-        <v>45981.04166666666</v>
+        <v>45981.0625</v>
       </c>
       <c r="B484">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -9169,10 +9169,10 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="2">
-        <v>45981.05208333334</v>
+        <v>45981.07291666666</v>
       </c>
       <c r="B485">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -9183,10 +9183,10 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="2">
-        <v>45981.0625</v>
+        <v>45981.09375</v>
       </c>
       <c r="B486">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -9197,10 +9197,10 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="2">
-        <v>45981.07291666666</v>
+        <v>45981.10416666666</v>
       </c>
       <c r="B487">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -9211,10 +9211,10 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="2">
-        <v>45981.09375</v>
+        <v>45981.11458333334</v>
       </c>
       <c r="B488">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -9225,10 +9225,10 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="2">
-        <v>45981.10416666666</v>
+        <v>45981.125</v>
       </c>
       <c r="B489">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -9239,10 +9239,10 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="2">
-        <v>45981.11458333334</v>
+        <v>45981.13541666666</v>
       </c>
       <c r="B490">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -9253,10 +9253,10 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="2">
-        <v>45981.125</v>
+        <v>45981.14583333334</v>
       </c>
       <c r="B491">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -9267,10 +9267,10 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="2">
-        <v>45981.13541666666</v>
+        <v>45981.15625</v>
       </c>
       <c r="B492">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -9281,10 +9281,10 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="2">
-        <v>45981.14583333334</v>
+        <v>45981.16666666666</v>
       </c>
       <c r="B493">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -9295,10 +9295,10 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="2">
-        <v>45981.15625</v>
+        <v>45981.17708333334</v>
       </c>
       <c r="B494">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -9309,10 +9309,10 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="2">
-        <v>45981.16666666666</v>
+        <v>45981.1875</v>
       </c>
       <c r="B495">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -9323,10 +9323,10 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="2">
-        <v>45981.17708333334</v>
+        <v>45981.19791666666</v>
       </c>
       <c r="B496">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -9337,10 +9337,10 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2">
-        <v>45981.1875</v>
+        <v>45981.20833333334</v>
       </c>
       <c r="B497">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -9351,10 +9351,10 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2">
-        <v>45981.19791666666</v>
+        <v>45981.21875</v>
       </c>
       <c r="B498">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -9365,10 +9365,10 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="2">
-        <v>45981.20833333334</v>
+        <v>45981.22916666666</v>
       </c>
       <c r="B499">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -9379,10 +9379,10 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="2">
-        <v>45981.21875</v>
+        <v>45981.23958333334</v>
       </c>
       <c r="B500">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -9393,10 +9393,10 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="2">
-        <v>45981.22916666666</v>
+        <v>45981.25</v>
       </c>
       <c r="B501">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -9407,10 +9407,10 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="2">
-        <v>45981.23958333334</v>
+        <v>45981.26041666666</v>
       </c>
       <c r="B502">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -9421,10 +9421,10 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="2">
-        <v>45981.25</v>
+        <v>45981.27083333334</v>
       </c>
       <c r="B503">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -9435,10 +9435,10 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="2">
-        <v>45981.26041666666</v>
+        <v>45981.28125</v>
       </c>
       <c r="B504">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -9449,10 +9449,10 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="2">
-        <v>45981.27083333334</v>
+        <v>45981.29166666666</v>
       </c>
       <c r="B505">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -9463,10 +9463,10 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="2">
-        <v>45981.28125</v>
+        <v>45981.30208333334</v>
       </c>
       <c r="B506">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -9477,10 +9477,10 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="2">
-        <v>45981.29166666666</v>
+        <v>45981.3125</v>
       </c>
       <c r="B507">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -9491,13 +9491,13 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="2">
-        <v>45981.30208333334</v>
+        <v>45981.32291666666</v>
       </c>
       <c r="B508">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C508">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="D508" t="s">
         <v>510</v>
@@ -9505,13 +9505,13 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="2">
-        <v>45981.3125</v>
+        <v>45981.33333333334</v>
       </c>
       <c r="B509">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C509">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="D509" t="s">
         <v>511</v>
@@ -9519,13 +9519,13 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="2">
-        <v>45981.32291666666</v>
+        <v>45981.34375</v>
       </c>
       <c r="B510">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C510">
-        <v>0.014</v>
+        <v>0.082</v>
       </c>
       <c r="D510" t="s">
         <v>512</v>
@@ -9533,13 +9533,13 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="2">
-        <v>45981.33333333334</v>
+        <v>45981.35416666666</v>
       </c>
       <c r="B511">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C511">
-        <v>0.043</v>
+        <v>0.102</v>
       </c>
       <c r="D511" t="s">
         <v>513</v>
@@ -9547,13 +9547,13 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="2">
-        <v>45981.34375</v>
+        <v>45981.36458333334</v>
       </c>
       <c r="B512">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C512">
-        <v>0.064</v>
+        <v>0.139</v>
       </c>
       <c r="D512" t="s">
         <v>514</v>
@@ -9561,13 +9561,13 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="2">
-        <v>45981.35416666666</v>
+        <v>45981.375</v>
       </c>
       <c r="B513">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C513">
-        <v>0.098</v>
+        <v>0.189</v>
       </c>
       <c r="D513" t="s">
         <v>515</v>
@@ -9575,13 +9575,13 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="2">
-        <v>45981.36458333334</v>
+        <v>45981.38541666666</v>
       </c>
       <c r="B514">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C514">
-        <v>0.129</v>
+        <v>0.228</v>
       </c>
       <c r="D514" t="s">
         <v>516</v>
@@ -9589,13 +9589,13 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="2">
-        <v>45981.375</v>
+        <v>45981.39583333334</v>
       </c>
       <c r="B515">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C515">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="D515" t="s">
         <v>517</v>
@@ -9603,13 +9603,13 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="2">
-        <v>45981.38541666666</v>
+        <v>45981.40625</v>
       </c>
       <c r="B516">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C516">
-        <v>0.208</v>
+        <v>0.334</v>
       </c>
       <c r="D516" t="s">
         <v>518</v>
@@ -9617,13 +9617,13 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="2">
-        <v>45981.39583333334</v>
+        <v>45981.41666666666</v>
       </c>
       <c r="B517">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C517">
-        <v>0.265</v>
+        <v>0.383</v>
       </c>
       <c r="D517" t="s">
         <v>519</v>
@@ -9631,13 +9631,13 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="2">
-        <v>45981.40625</v>
+        <v>45981.42708333334</v>
       </c>
       <c r="B518">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C518">
-        <v>0.318</v>
+        <v>0.402</v>
       </c>
       <c r="D518" t="s">
         <v>520</v>
@@ -9645,13 +9645,13 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="2">
-        <v>45981.41666666666</v>
+        <v>45981.4375</v>
       </c>
       <c r="B519">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C519">
-        <v>0.356</v>
+        <v>0.501</v>
       </c>
       <c r="D519" t="s">
         <v>521</v>
@@ -9659,13 +9659,13 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="2">
-        <v>45981.42708333334</v>
+        <v>45981.44791666666</v>
       </c>
       <c r="B520">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C520">
-        <v>0.38</v>
+        <v>0.508</v>
       </c>
       <c r="D520" t="s">
         <v>522</v>
@@ -9673,13 +9673,13 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="2">
-        <v>45981.4375</v>
+        <v>45981.45833333334</v>
       </c>
       <c r="B521">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C521">
-        <v>0.407</v>
+        <v>0.526</v>
       </c>
       <c r="D521" t="s">
         <v>523</v>
@@ -9687,13 +9687,13 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="2">
-        <v>45981.44791666666</v>
+        <v>45981.46875</v>
       </c>
       <c r="B522">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C522">
-        <v>0.456</v>
+        <v>0.601</v>
       </c>
       <c r="D522" t="s">
         <v>524</v>
@@ -9701,13 +9701,13 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="2">
-        <v>45981.45833333334</v>
+        <v>45981.47916666666</v>
       </c>
       <c r="B523">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C523">
-        <v>0.453</v>
+        <v>0.608</v>
       </c>
       <c r="D523" t="s">
         <v>525</v>
@@ -9715,13 +9715,13 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="2">
-        <v>45981.46875</v>
+        <v>45981.48958333334</v>
       </c>
       <c r="B524">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C524">
-        <v>0.516</v>
+        <v>0.64</v>
       </c>
       <c r="D524" t="s">
         <v>526</v>
@@ -9729,13 +9729,13 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="2">
-        <v>45981.47916666666</v>
+        <v>45981.5</v>
       </c>
       <c r="B525">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C525">
-        <v>0.525</v>
+        <v>0.64</v>
       </c>
       <c r="D525" t="s">
         <v>527</v>
@@ -9743,13 +9743,13 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="2">
-        <v>45981.48958333334</v>
+        <v>45981.51041666666</v>
       </c>
       <c r="B526">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C526">
-        <v>0.548</v>
+        <v>0.634</v>
       </c>
       <c r="D526" t="s">
         <v>528</v>
@@ -9757,13 +9757,13 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="2">
-        <v>45981.5</v>
+        <v>45981.52083333334</v>
       </c>
       <c r="B527">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C527">
-        <v>0.556</v>
+        <v>0.633</v>
       </c>
       <c r="D527" t="s">
         <v>529</v>
@@ -9771,13 +9771,13 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="2">
-        <v>45981.51041666666</v>
+        <v>45981.53125</v>
       </c>
       <c r="B528">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C528">
-        <v>0.5590000000000001</v>
+        <v>0.617</v>
       </c>
       <c r="D528" t="s">
         <v>530</v>
@@ -9785,13 +9785,13 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="2">
-        <v>45981.52083333334</v>
+        <v>45981.54166666666</v>
       </c>
       <c r="B529">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C529">
-        <v>0.545</v>
+        <v>0.601</v>
       </c>
       <c r="D529" t="s">
         <v>531</v>
@@ -9799,13 +9799,13 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="2">
-        <v>45981.53125</v>
+        <v>45981.55208333334</v>
       </c>
       <c r="B530">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C530">
-        <v>0.538</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D530" t="s">
         <v>532</v>
@@ -9813,13 +9813,13 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="2">
-        <v>45981.54166666666</v>
+        <v>45981.5625</v>
       </c>
       <c r="B531">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C531">
-        <v>0.524</v>
+        <v>0.548</v>
       </c>
       <c r="D531" t="s">
         <v>533</v>
@@ -9827,13 +9827,13 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="2">
-        <v>45981.55208333334</v>
+        <v>45981.57291666666</v>
       </c>
       <c r="B532">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C532">
-        <v>0.522</v>
+        <v>0.504</v>
       </c>
       <c r="D532" t="s">
         <v>534</v>
@@ -9841,13 +9841,13 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="2">
-        <v>45981.5625</v>
+        <v>45981.58333333334</v>
       </c>
       <c r="B533">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C533">
-        <v>0.509</v>
+        <v>0.458</v>
       </c>
       <c r="D533" t="s">
         <v>535</v>
@@ -9855,13 +9855,13 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="2">
-        <v>45981.57291666666</v>
+        <v>45981.59375</v>
       </c>
       <c r="B534">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C534">
-        <v>0.481</v>
+        <v>0.36</v>
       </c>
       <c r="D534" t="s">
         <v>536</v>
@@ -9869,13 +9869,13 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="2">
-        <v>45981.58333333334</v>
+        <v>45981.60416666666</v>
       </c>
       <c r="B535">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C535">
-        <v>0.408</v>
+        <v>0.34</v>
       </c>
       <c r="D535" t="s">
         <v>537</v>
@@ -9883,13 +9883,13 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="2">
-        <v>45981.59375</v>
+        <v>45981.61458333334</v>
       </c>
       <c r="B536">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C536">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="D536" t="s">
         <v>538</v>
@@ -9897,13 +9897,13 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="2">
-        <v>45981.60416666666</v>
+        <v>45981.625</v>
       </c>
       <c r="B537">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C537">
-        <v>0.322</v>
+        <v>0.276</v>
       </c>
       <c r="D537" t="s">
         <v>539</v>
@@ -9911,13 +9911,13 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="2">
-        <v>45981.61458333334</v>
+        <v>45981.63541666666</v>
       </c>
       <c r="B538">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C538">
-        <v>0.283</v>
+        <v>0.225</v>
       </c>
       <c r="D538" t="s">
         <v>540</v>
@@ -9925,13 +9925,13 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="2">
-        <v>45981.625</v>
+        <v>45981.64583333334</v>
       </c>
       <c r="B539">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C539">
-        <v>0.267</v>
+        <v>0.173</v>
       </c>
       <c r="D539" t="s">
         <v>541</v>
@@ -9939,13 +9939,13 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="2">
-        <v>45981.63541666666</v>
+        <v>45981.65625</v>
       </c>
       <c r="B540">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C540">
-        <v>0.205</v>
+        <v>0.11</v>
       </c>
       <c r="D540" t="s">
         <v>542</v>
@@ -9953,13 +9953,13 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="2">
-        <v>45981.64583333334</v>
+        <v>45981.66666666666</v>
       </c>
       <c r="B541">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C541">
-        <v>0.157</v>
+        <v>0.067</v>
       </c>
       <c r="D541" t="s">
         <v>543</v>
@@ -9967,13 +9967,13 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="2">
-        <v>45981.65625</v>
+        <v>45981.67708333334</v>
       </c>
       <c r="B542">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C542">
-        <v>0.108</v>
+        <v>0.044</v>
       </c>
       <c r="D542" t="s">
         <v>544</v>
@@ -9981,13 +9981,13 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="2">
-        <v>45981.66666666666</v>
+        <v>45981.6875</v>
       </c>
       <c r="B543">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C543">
-        <v>0.068</v>
+        <v>0.016</v>
       </c>
       <c r="D543" t="s">
         <v>545</v>
@@ -9995,13 +9995,13 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="2">
-        <v>45981.67708333334</v>
+        <v>45981.69791666666</v>
       </c>
       <c r="B544">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C544">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="D544" t="s">
         <v>546</v>
@@ -10009,13 +10009,13 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="2">
-        <v>45981.6875</v>
+        <v>45981.70833333334</v>
       </c>
       <c r="B545">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C545">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="D545" t="s">
         <v>547</v>
@@ -10023,10 +10023,10 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="2">
-        <v>45981.69791666666</v>
+        <v>45981.71875</v>
       </c>
       <c r="B546">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -10037,10 +10037,10 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="2">
-        <v>45981.70833333334</v>
+        <v>45981.72916666666</v>
       </c>
       <c r="B547">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -10051,10 +10051,10 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="2">
-        <v>45981.71875</v>
+        <v>45981.73958333334</v>
       </c>
       <c r="B548">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C548">
         <v>0</v>
@@ -10065,10 +10065,10 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="2">
-        <v>45981.72916666666</v>
+        <v>45981.75</v>
       </c>
       <c r="B549">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -10079,10 +10079,10 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="2">
-        <v>45981.73958333334</v>
+        <v>45981.76041666666</v>
       </c>
       <c r="B550">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -10093,10 +10093,10 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="2">
-        <v>45981.75</v>
+        <v>45981.77083333334</v>
       </c>
       <c r="B551">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -10107,10 +10107,10 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="2">
-        <v>45981.76041666666</v>
+        <v>45981.78125</v>
       </c>
       <c r="B552">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -10121,10 +10121,10 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="2">
-        <v>45981.77083333334</v>
+        <v>45981.79166666666</v>
       </c>
       <c r="B553">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -10135,10 +10135,10 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="2">
-        <v>45981.78125</v>
+        <v>45981.80208333334</v>
       </c>
       <c r="B554">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -10149,10 +10149,10 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="2">
-        <v>45981.79166666666</v>
+        <v>45981.8125</v>
       </c>
       <c r="B555">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C555">
         <v>0</v>
@@ -10163,10 +10163,10 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="2">
-        <v>45981.80208333334</v>
+        <v>45981.82291666666</v>
       </c>
       <c r="B556">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -10177,10 +10177,10 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="2">
-        <v>45981.8125</v>
+        <v>45981.83333333334</v>
       </c>
       <c r="B557">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C557">
         <v>0</v>
@@ -10191,10 +10191,10 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="2">
-        <v>45981.82291666666</v>
+        <v>45981.84375</v>
       </c>
       <c r="B558">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C558">
         <v>0</v>
@@ -10205,10 +10205,10 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="2">
-        <v>45981.83333333334</v>
+        <v>45981.85416666666</v>
       </c>
       <c r="B559">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -10219,10 +10219,10 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="2">
-        <v>45981.84375</v>
+        <v>45981.86458333334</v>
       </c>
       <c r="B560">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -10233,10 +10233,10 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="2">
-        <v>45981.85416666666</v>
+        <v>45981.875</v>
       </c>
       <c r="B561">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -10247,10 +10247,10 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="2">
-        <v>45981.86458333334</v>
+        <v>45981.88541666666</v>
       </c>
       <c r="B562">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C562">
         <v>0</v>
@@ -10261,10 +10261,10 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="2">
-        <v>45981.875</v>
+        <v>45981.89583333334</v>
       </c>
       <c r="B563">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C563">
         <v>0</v>
@@ -10275,10 +10275,10 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="2">
-        <v>45981.88541666666</v>
+        <v>45981.90625</v>
       </c>
       <c r="B564">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -10289,10 +10289,10 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="2">
-        <v>45981.89583333334</v>
+        <v>45981.91666666666</v>
       </c>
       <c r="B565">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C565">
         <v>0</v>
@@ -10303,10 +10303,10 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="2">
-        <v>45981.90625</v>
+        <v>45981.92708333334</v>
       </c>
       <c r="B566">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C566">
         <v>0</v>
@@ -10317,10 +10317,10 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="2">
-        <v>45981.91666666666</v>
+        <v>45981.9375</v>
       </c>
       <c r="B567">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -10331,10 +10331,10 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="2">
-        <v>45981.92708333334</v>
+        <v>45981.94791666666</v>
       </c>
       <c r="B568">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C568">
         <v>0</v>
@@ -10345,10 +10345,10 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="2">
-        <v>45981.9375</v>
+        <v>45981.95833333334</v>
       </c>
       <c r="B569">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -10359,10 +10359,10 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="2">
-        <v>45981.94791666666</v>
+        <v>45981.96875</v>
       </c>
       <c r="B570">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C570">
         <v>0</v>
@@ -10373,10 +10373,10 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="2">
-        <v>45981.95833333334</v>
+        <v>45981.97916666666</v>
       </c>
       <c r="B571">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -10387,10 +10387,10 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="2">
-        <v>45981.96875</v>
+        <v>45981.98958333334</v>
       </c>
       <c r="B572">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -10401,10 +10401,10 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="2">
-        <v>45981.97916666666</v>
+        <v>45982</v>
       </c>
       <c r="B573">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -10415,10 +10415,10 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="2">
-        <v>45981.98958333334</v>
+        <v>45982.01041666666</v>
       </c>
       <c r="B574">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C574">
         <v>0</v>
@@ -10429,10 +10429,10 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="2">
-        <v>45982</v>
+        <v>45982.02083333334</v>
       </c>
       <c r="B575">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -10443,10 +10443,10 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="2">
-        <v>45982.01041666666</v>
+        <v>45982.03125</v>
       </c>
       <c r="B576">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C576">
         <v>0</v>
@@ -10457,10 +10457,10 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="2">
-        <v>45982.02083333334</v>
+        <v>45982.04166666666</v>
       </c>
       <c r="B577">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C577">
         <v>0</v>
@@ -10471,10 +10471,10 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="2">
-        <v>45982.03125</v>
+        <v>45982.05208333334</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C578">
         <v>0</v>
@@ -10485,10 +10485,10 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="2">
-        <v>45982.04166666666</v>
+        <v>45982.0625</v>
       </c>
       <c r="B579">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C579">
         <v>0</v>
@@ -10499,10 +10499,10 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="2">
-        <v>45982.05208333334</v>
+        <v>45982.07291666666</v>
       </c>
       <c r="B580">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C580">
         <v>0</v>
@@ -10513,10 +10513,10 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="2">
-        <v>45982.0625</v>
+        <v>45982.09375</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C581">
         <v>0</v>
@@ -10527,10 +10527,10 @@
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="2">
-        <v>45982.07291666666</v>
+        <v>45982.10416666666</v>
       </c>
       <c r="B582">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C582">
         <v>0</v>
@@ -10541,10 +10541,10 @@
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="2">
-        <v>45982.09375</v>
+        <v>45982.11458333334</v>
       </c>
       <c r="B583">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C583">
         <v>0</v>
@@ -10555,10 +10555,10 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="2">
-        <v>45982.10416666666</v>
+        <v>45982.125</v>
       </c>
       <c r="B584">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C584">
         <v>0</v>
@@ -10569,10 +10569,10 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="2">
-        <v>45982.11458333334</v>
+        <v>45982.13541666666</v>
       </c>
       <c r="B585">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -10583,10 +10583,10 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="2">
-        <v>45982.125</v>
+        <v>45982.14583333334</v>
       </c>
       <c r="B586">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C586">
         <v>0</v>
@@ -10597,10 +10597,10 @@
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="2">
-        <v>45982.13541666666</v>
+        <v>45982.15625</v>
       </c>
       <c r="B587">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C587">
         <v>0</v>
@@ -10611,10 +10611,10 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="2">
-        <v>45982.14583333334</v>
+        <v>45982.16666666666</v>
       </c>
       <c r="B588">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -10625,10 +10625,10 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="2">
-        <v>45982.15625</v>
+        <v>45982.17708333334</v>
       </c>
       <c r="B589">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C589">
         <v>0</v>
@@ -10639,10 +10639,10 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="2">
-        <v>45982.16666666666</v>
+        <v>45982.1875</v>
       </c>
       <c r="B590">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C590">
         <v>0</v>
@@ -10653,10 +10653,10 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="2">
-        <v>45982.17708333334</v>
+        <v>45982.19791666666</v>
       </c>
       <c r="B591">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C591">
         <v>0</v>
@@ -10667,10 +10667,10 @@
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="2">
-        <v>45982.1875</v>
+        <v>45982.20833333334</v>
       </c>
       <c r="B592">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C592">
         <v>0</v>
@@ -10681,10 +10681,10 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="2">
-        <v>45982.19791666666</v>
+        <v>45982.21875</v>
       </c>
       <c r="B593">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -10695,10 +10695,10 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="2">
-        <v>45982.20833333334</v>
+        <v>45982.22916666666</v>
       </c>
       <c r="B594">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C594">
         <v>0</v>
@@ -10709,10 +10709,10 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="2">
-        <v>45982.21875</v>
+        <v>45982.23958333334</v>
       </c>
       <c r="B595">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C595">
         <v>0</v>
@@ -10723,10 +10723,10 @@
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="2">
-        <v>45982.22916666666</v>
+        <v>45982.25</v>
       </c>
       <c r="B596">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C596">
         <v>0</v>
@@ -10737,10 +10737,10 @@
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="2">
-        <v>45982.23958333334</v>
+        <v>45982.26041666666</v>
       </c>
       <c r="B597">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C597">
         <v>0</v>
@@ -10751,10 +10751,10 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="2">
-        <v>45982.25</v>
+        <v>45982.27083333334</v>
       </c>
       <c r="B598">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C598">
         <v>0</v>
@@ -10765,10 +10765,10 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="2">
-        <v>45982.26041666666</v>
+        <v>45982.28125</v>
       </c>
       <c r="B599">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C599">
         <v>0</v>
@@ -10779,10 +10779,10 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="2">
-        <v>45982.27083333334</v>
+        <v>45982.29166666666</v>
       </c>
       <c r="B600">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C600">
         <v>0</v>
@@ -10793,10 +10793,10 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="2">
-        <v>45982.28125</v>
+        <v>45982.30208333334</v>
       </c>
       <c r="B601">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C601">
         <v>0</v>
@@ -10807,10 +10807,10 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="2">
-        <v>45982.29166666666</v>
+        <v>45982.3125</v>
       </c>
       <c r="B602">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C602">
         <v>0</v>
@@ -10821,13 +10821,13 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="2">
-        <v>45982.30208333334</v>
+        <v>45982.32291666666</v>
       </c>
       <c r="B603">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C603">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="D603" t="s">
         <v>605</v>
@@ -10835,13 +10835,13 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="2">
-        <v>45982.3125</v>
+        <v>45982.33333333334</v>
       </c>
       <c r="B604">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C604">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="D604" t="s">
         <v>606</v>
@@ -10849,13 +10849,13 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="2">
-        <v>45982.32291666666</v>
+        <v>45982.34375</v>
       </c>
       <c r="B605">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C605">
-        <v>0.017</v>
+        <v>0.076</v>
       </c>
       <c r="D605" t="s">
         <v>607</v>
@@ -10863,13 +10863,13 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="2">
-        <v>45982.33333333334</v>
+        <v>45982.35416666666</v>
       </c>
       <c r="B606">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C606">
-        <v>0.047</v>
+        <v>0.102</v>
       </c>
       <c r="D606" t="s">
         <v>608</v>
@@ -10877,13 +10877,13 @@
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="2">
-        <v>45982.34375</v>
+        <v>45982.36458333334</v>
       </c>
       <c r="B607">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C607">
-        <v>0.076</v>
+        <v>0.125</v>
       </c>
       <c r="D607" t="s">
         <v>609</v>
@@ -10891,13 +10891,13 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="2">
-        <v>45982.35416666666</v>
+        <v>45982.375</v>
       </c>
       <c r="B608">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C608">
-        <v>0.112</v>
+        <v>0.185</v>
       </c>
       <c r="D608" t="s">
         <v>610</v>
@@ -10905,13 +10905,13 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="2">
-        <v>45982.36458333334</v>
+        <v>45982.38541666666</v>
       </c>
       <c r="B609">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C609">
-        <v>0.172</v>
+        <v>0.226</v>
       </c>
       <c r="D609" t="s">
         <v>611</v>
@@ -10919,13 +10919,13 @@
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="2">
-        <v>45982.375</v>
+        <v>45982.39583333334</v>
       </c>
       <c r="B610">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C610">
-        <v>0.235</v>
+        <v>0.304</v>
       </c>
       <c r="D610" t="s">
         <v>612</v>
@@ -10933,13 +10933,13 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="2">
-        <v>45982.38541666666</v>
+        <v>45982.40625</v>
       </c>
       <c r="B611">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C611">
-        <v>0.297</v>
+        <v>0.371</v>
       </c>
       <c r="D611" t="s">
         <v>613</v>
@@ -10947,13 +10947,13 @@
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="2">
-        <v>45982.39583333334</v>
+        <v>45982.41666666666</v>
       </c>
       <c r="B612">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C612">
-        <v>0.361</v>
+        <v>0.399</v>
       </c>
       <c r="D612" t="s">
         <v>614</v>
@@ -10961,13 +10961,13 @@
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="2">
-        <v>45982.40625</v>
+        <v>45982.42708333334</v>
       </c>
       <c r="B613">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C613">
-        <v>0.449</v>
+        <v>0.41</v>
       </c>
       <c r="D613" t="s">
         <v>615</v>
@@ -10975,13 +10975,13 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="2">
-        <v>45982.41666666666</v>
+        <v>45982.4375</v>
       </c>
       <c r="B614">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C614">
-        <v>0.455</v>
+        <v>0.45</v>
       </c>
       <c r="D614" t="s">
         <v>616</v>
@@ -10989,13 +10989,13 @@
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="2">
-        <v>45982.42708333334</v>
+        <v>45982.44791666666</v>
       </c>
       <c r="B615">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C615">
-        <v>0.517</v>
+        <v>0.513</v>
       </c>
       <c r="D615" t="s">
         <v>617</v>
@@ -11003,13 +11003,13 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="2">
-        <v>45982.4375</v>
+        <v>45982.45833333334</v>
       </c>
       <c r="B616">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C616">
-        <v>0.5639999999999999</v>
+        <v>0.498</v>
       </c>
       <c r="D616" t="s">
         <v>618</v>
@@ -11017,13 +11017,13 @@
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="2">
-        <v>45982.44791666666</v>
+        <v>45982.46875</v>
       </c>
       <c r="B617">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C617">
-        <v>0.598</v>
+        <v>0.526</v>
       </c>
       <c r="D617" t="s">
         <v>619</v>
@@ -11031,13 +11031,13 @@
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="2">
-        <v>45982.45833333334</v>
+        <v>45982.47916666666</v>
       </c>
       <c r="B618">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C618">
-        <v>0.623</v>
+        <v>0.535</v>
       </c>
       <c r="D618" t="s">
         <v>620</v>
@@ -11045,13 +11045,13 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="2">
-        <v>45982.46875</v>
+        <v>45982.48958333334</v>
       </c>
       <c r="B619">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C619">
-        <v>0.633</v>
+        <v>0.554</v>
       </c>
       <c r="D619" t="s">
         <v>621</v>
@@ -11059,13 +11059,13 @@
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="2">
-        <v>45982.47916666666</v>
+        <v>45982.5</v>
       </c>
       <c r="B620">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C620">
-        <v>0.645</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D620" t="s">
         <v>622</v>
@@ -11073,13 +11073,13 @@
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="2">
-        <v>45982.48958333334</v>
+        <v>45982.51041666666</v>
       </c>
       <c r="B621">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C621">
-        <v>0.641</v>
+        <v>0.545</v>
       </c>
       <c r="D621" t="s">
         <v>623</v>
@@ -11087,13 +11087,13 @@
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="2">
-        <v>45982.5</v>
+        <v>45982.52083333334</v>
       </c>
       <c r="B622">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C622">
-        <v>0.638</v>
+        <v>0.527</v>
       </c>
       <c r="D622" t="s">
         <v>624</v>
@@ -11101,13 +11101,13 @@
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="2">
-        <v>45982.51041666666</v>
+        <v>45982.53125</v>
       </c>
       <c r="B623">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C623">
-        <v>0.625</v>
+        <v>0.507</v>
       </c>
       <c r="D623" t="s">
         <v>625</v>
@@ -11115,13 +11115,13 @@
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="2">
-        <v>45982.52083333334</v>
+        <v>45982.54166666666</v>
       </c>
       <c r="B624">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C624">
-        <v>0.622</v>
+        <v>0.481</v>
       </c>
       <c r="D624" t="s">
         <v>626</v>
@@ -11129,13 +11129,13 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="2">
-        <v>45982.53125</v>
+        <v>45982.55208333334</v>
       </c>
       <c r="B625">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C625">
-        <v>0.601</v>
+        <v>0.458</v>
       </c>
       <c r="D625" t="s">
         <v>627</v>
@@ -11143,13 +11143,13 @@
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="2">
-        <v>45982.54166666666</v>
+        <v>45982.5625</v>
       </c>
       <c r="B626">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C626">
-        <v>0.574</v>
+        <v>0.483</v>
       </c>
       <c r="D626" t="s">
         <v>628</v>
@@ -11157,13 +11157,13 @@
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="2">
-        <v>45982.55208333334</v>
+        <v>45982.57291666666</v>
       </c>
       <c r="B627">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C627">
-        <v>0.532</v>
+        <v>0.433</v>
       </c>
       <c r="D627" t="s">
         <v>629</v>
@@ -11171,13 +11171,13 @@
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="2">
-        <v>45982.5625</v>
+        <v>45982.58333333334</v>
       </c>
       <c r="B628">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C628">
-        <v>0.509</v>
+        <v>0.376</v>
       </c>
       <c r="D628" t="s">
         <v>630</v>
@@ -11185,13 +11185,13 @@
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="2">
-        <v>45982.57291666666</v>
+        <v>45982.59375</v>
       </c>
       <c r="B629">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C629">
-        <v>0.466</v>
+        <v>0.367</v>
       </c>
       <c r="D629" t="s">
         <v>631</v>
@@ -11199,13 +11199,13 @@
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="2">
-        <v>45982.58333333334</v>
+        <v>45982.60416666666</v>
       </c>
       <c r="B630">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C630">
-        <v>0.353</v>
+        <v>0.338</v>
       </c>
       <c r="D630" t="s">
         <v>632</v>
@@ -11213,13 +11213,13 @@
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="2">
-        <v>45982.59375</v>
+        <v>45982.61458333334</v>
       </c>
       <c r="B631">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C631">
-        <v>0.329</v>
+        <v>0.274</v>
       </c>
       <c r="D631" t="s">
         <v>633</v>
@@ -11227,13 +11227,13 @@
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="2">
-        <v>45982.60416666666</v>
+        <v>45982.625</v>
       </c>
       <c r="B632">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C632">
-        <v>0.333</v>
+        <v>0.221</v>
       </c>
       <c r="D632" t="s">
         <v>634</v>
@@ -11241,13 +11241,13 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="2">
-        <v>45982.61458333334</v>
+        <v>45982.63541666666</v>
       </c>
       <c r="B633">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C633">
-        <v>0.287</v>
+        <v>0.192</v>
       </c>
       <c r="D633" t="s">
         <v>635</v>
@@ -11255,13 +11255,13 @@
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="2">
-        <v>45982.625</v>
+        <v>45982.64583333334</v>
       </c>
       <c r="B634">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C634">
-        <v>0.217</v>
+        <v>0.137</v>
       </c>
       <c r="D634" t="s">
         <v>636</v>
@@ -11269,13 +11269,13 @@
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="2">
-        <v>45982.63541666666</v>
+        <v>45982.65625</v>
       </c>
       <c r="B635">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C635">
-        <v>0.177</v>
+        <v>0.095</v>
       </c>
       <c r="D635" t="s">
         <v>637</v>
@@ -11283,13 +11283,13 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="2">
-        <v>45982.64583333334</v>
+        <v>45982.66666666666</v>
       </c>
       <c r="B636">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C636">
-        <v>0.135</v>
+        <v>0.061</v>
       </c>
       <c r="D636" t="s">
         <v>638</v>
@@ -11297,13 +11297,13 @@
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="2">
-        <v>45982.65625</v>
+        <v>45982.67708333334</v>
       </c>
       <c r="B637">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C637">
-        <v>0.093</v>
+        <v>0.037</v>
       </c>
       <c r="D637" t="s">
         <v>639</v>
@@ -11311,13 +11311,13 @@
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="2">
-        <v>45982.66666666666</v>
+        <v>45982.6875</v>
       </c>
       <c r="B638">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C638">
-        <v>0.063</v>
+        <v>0.015</v>
       </c>
       <c r="D638" t="s">
         <v>640</v>
@@ -11325,13 +11325,13 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="2">
-        <v>45982.67708333334</v>
+        <v>45982.69791666666</v>
       </c>
       <c r="B639">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C639">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D639" t="s">
         <v>641</v>
@@ -11339,13 +11339,13 @@
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="2">
-        <v>45982.6875</v>
+        <v>45982.70833333334</v>
       </c>
       <c r="B640">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C640">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="D640" t="s">
         <v>642</v>
@@ -11353,10 +11353,10 @@
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="2">
-        <v>45982.69791666666</v>
+        <v>45982.71875</v>
       </c>
       <c r="B641">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C641">
         <v>0</v>
@@ -11367,10 +11367,10 @@
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="2">
-        <v>45982.70833333334</v>
+        <v>45982.72916666666</v>
       </c>
       <c r="B642">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C642">
         <v>0</v>
@@ -11381,10 +11381,10 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="2">
-        <v>45982.71875</v>
+        <v>45982.73958333334</v>
       </c>
       <c r="B643">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C643">
         <v>0</v>
@@ -11395,10 +11395,10 @@
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="2">
-        <v>45982.72916666666</v>
+        <v>45982.75</v>
       </c>
       <c r="B644">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C644">
         <v>0</v>
@@ -11409,10 +11409,10 @@
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="2">
-        <v>45982.73958333334</v>
+        <v>45982.76041666666</v>
       </c>
       <c r="B645">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C645">
         <v>0</v>
@@ -11423,10 +11423,10 @@
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="2">
-        <v>45982.75</v>
+        <v>45982.77083333334</v>
       </c>
       <c r="B646">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C646">
         <v>0</v>
@@ -11437,10 +11437,10 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="2">
-        <v>45982.76041666666</v>
+        <v>45982.78125</v>
       </c>
       <c r="B647">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C647">
         <v>0</v>
@@ -11451,10 +11451,10 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="2">
-        <v>45982.77083333334</v>
+        <v>45982.79166666666</v>
       </c>
       <c r="B648">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C648">
         <v>0</v>
@@ -11465,10 +11465,10 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="2">
-        <v>45982.78125</v>
+        <v>45982.80208333334</v>
       </c>
       <c r="B649">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C649">
         <v>0</v>
@@ -11479,10 +11479,10 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="2">
-        <v>45982.79166666666</v>
+        <v>45982.8125</v>
       </c>
       <c r="B650">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C650">
         <v>0</v>
@@ -11493,10 +11493,10 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="2">
-        <v>45982.80208333334</v>
+        <v>45982.82291666666</v>
       </c>
       <c r="B651">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C651">
         <v>0</v>
@@ -11507,10 +11507,10 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="2">
-        <v>45982.8125</v>
+        <v>45982.83333333334</v>
       </c>
       <c r="B652">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C652">
         <v>0</v>
@@ -11521,10 +11521,10 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="2">
-        <v>45982.82291666666</v>
+        <v>45982.84375</v>
       </c>
       <c r="B653">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C653">
         <v>0</v>
@@ -11535,10 +11535,10 @@
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="2">
-        <v>45982.83333333334</v>
+        <v>45982.85416666666</v>
       </c>
       <c r="B654">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C654">
         <v>0</v>
@@ -11549,10 +11549,10 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="2">
-        <v>45982.84375</v>
+        <v>45982.86458333334</v>
       </c>
       <c r="B655">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C655">
         <v>0</v>
@@ -11563,10 +11563,10 @@
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="2">
-        <v>45982.85416666666</v>
+        <v>45982.875</v>
       </c>
       <c r="B656">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C656">
         <v>0</v>
@@ -11577,10 +11577,10 @@
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="2">
-        <v>45982.86458333334</v>
+        <v>45982.88541666666</v>
       </c>
       <c r="B657">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C657">
         <v>0</v>
@@ -11591,10 +11591,10 @@
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="2">
-        <v>45982.875</v>
+        <v>45982.89583333334</v>
       </c>
       <c r="B658">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C658">
         <v>0</v>
@@ -11605,10 +11605,10 @@
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="2">
-        <v>45982.88541666666</v>
+        <v>45982.90625</v>
       </c>
       <c r="B659">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C659">
         <v>0</v>
@@ -11619,10 +11619,10 @@
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="2">
-        <v>45982.89583333334</v>
+        <v>45982.91666666666</v>
       </c>
       <c r="B660">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C660">
         <v>0</v>
@@ -11633,10 +11633,10 @@
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="2">
-        <v>45982.90625</v>
+        <v>45982.92708333334</v>
       </c>
       <c r="B661">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -11647,10 +11647,10 @@
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="2">
-        <v>45982.91666666666</v>
+        <v>45982.9375</v>
       </c>
       <c r="B662">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C662">
         <v>0</v>
@@ -11661,10 +11661,10 @@
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="2">
-        <v>45982.92708333334</v>
+        <v>45982.94791666666</v>
       </c>
       <c r="B663">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C663">
         <v>0</v>
@@ -11675,10 +11675,10 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="2">
-        <v>45982.9375</v>
+        <v>45982.95833333334</v>
       </c>
       <c r="B664">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C664">
         <v>0</v>
@@ -11689,10 +11689,10 @@
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="2">
-        <v>45982.94791666666</v>
+        <v>45982.96875</v>
       </c>
       <c r="B665">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C665">
         <v>0</v>
@@ -11703,10 +11703,10 @@
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="2">
-        <v>45982.95833333334</v>
+        <v>45982.97916666666</v>
       </c>
       <c r="B666">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C666">
         <v>0</v>
@@ -11717,10 +11717,10 @@
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="2">
-        <v>45982.96875</v>
+        <v>45982.98958333334</v>
       </c>
       <c r="B667">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C667">
         <v>0</v>
